--- a/extensions/icdm2016/doc-Experiments/ResidualsAnalysis.xlsx
+++ b/extensions/icdm2016/doc-Experiments/ResidualsAnalysis.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13880" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13880" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Peaks-Graph" sheetId="3" r:id="rId1"/>
     <sheet name="Peaks" sheetId="1" r:id="rId2"/>
     <sheet name="Peaks-Residuals" sheetId="2" r:id="rId3"/>
     <sheet name="Graph-NoPeaks" sheetId="6" r:id="rId4"/>
-    <sheet name="NoPeaks" sheetId="5" r:id="rId5"/>
-    <sheet name="NoPeaks--Residuals" sheetId="4" r:id="rId6"/>
-    <sheet name="NoPeaks-Residuals-2" sheetId="7" r:id="rId7"/>
-    <sheet name="NoPeaks-Residuals-3" sheetId="8" r:id="rId8"/>
+    <sheet name="Graph-NoPeaks-Single" sheetId="9" r:id="rId5"/>
+    <sheet name="NoPeaks" sheetId="5" r:id="rId6"/>
+    <sheet name="NoPeaks--Residuals" sheetId="4" r:id="rId7"/>
+    <sheet name="NoPeaks-Residuals-2" sheetId="7" r:id="rId8"/>
+    <sheet name="NoPeaks-Residuals-3" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
   <si>
     <t>VAR01realMean_c0</t>
   </si>
@@ -159,8 +160,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -170,9 +173,11 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1536,11 +1541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082298376"/>
-        <c:axId val="2082301432"/>
+        <c:axId val="2135242056"/>
+        <c:axId val="2135245112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2082298376"/>
+        <c:axId val="2135242056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,14 +1555,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082301432"/>
+        <c:crossAx val="2135245112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2082301432"/>
+        <c:axId val="2135245112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082298376"/>
+        <c:crossAx val="2135242056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1610,11 +1615,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$O$1</c:f>
+              <c:f>NoPeaks!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04realMean_c1</c:v>
+                  <c:v>VAR04realMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1622,200 +1627,398 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$O$2:$O$64</c:f>
+              <c:f>NoPeaks!$M$2:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>1353.72213473315</c:v>
+                  <c:v>7694.21171272814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1354.60584474885</c:v>
+                  <c:v>7828.55519804247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1323.33831180017</c:v>
+                  <c:v>7733.67179326886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1228.0978313253</c:v>
+                  <c:v>7446.26437989178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1631.71771152296</c:v>
+                  <c:v>7098.48968022133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>782.937855361595</c:v>
+                  <c:v>6749.95521058557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>506.002120441051</c:v>
+                  <c:v>6577.40987760912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>615.524153498871</c:v>
+                  <c:v>6808.08823173773</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>995.817998423954</c:v>
+                  <c:v>6857.93660953426</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>691.1967691208</c:v>
+                  <c:v>7002.7463913285</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>618.622829194883</c:v>
+                  <c:v>6839.51986471658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>696.548212867354</c:v>
+                  <c:v>6892.05427954521</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>494.211636363636</c:v>
+                  <c:v>6738.11065461615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>448.412924126172</c:v>
+                  <c:v>6527.95270386916</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>363.648738007379</c:v>
+                  <c:v>6078.32396467676</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>421.723466440102</c:v>
+                  <c:v>5824.8384385476</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>385.747689429373</c:v>
+                  <c:v>5560.37533513424</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>475.87962721342</c:v>
+                  <c:v>5903.9899468281</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>491.143627152988</c:v>
+                  <c:v>6058.25454505332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>593.270377524144</c:v>
+                  <c:v>6261.28805328017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>697.577497231451</c:v>
+                  <c:v>6594.86620421412</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>910.727449584816</c:v>
+                  <c:v>6768.60457411448</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>661.0428848484841</c:v>
+                  <c:v>6954.24134154924</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>600.499030144167</c:v>
+                  <c:v>6833.91825740203</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>468.742802802803</c:v>
+                  <c:v>6498.03653842321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>731.795600539811</c:v>
+                  <c:v>6225.57711357396</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>755.577717546362</c:v>
+                  <c:v>6093.47841071248</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>546.554066225165</c:v>
+                  <c:v>6270.54961710211</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>595.863328631875</c:v>
+                  <c:v>6423.52863394221</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>288.463004975124</c:v>
+                  <c:v>6787.17335275431</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>696.364572230013</c:v>
+                  <c:v>7210.88754596436</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>485.278344459278</c:v>
+                  <c:v>7312.91385547112</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>505.261182147164</c:v>
+                  <c:v>7513.98561803452</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>188.061082737487</c:v>
+                  <c:v>7132.91941213626</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>144.712145960034</c:v>
+                  <c:v>6663.56093104635</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>258.067354685646</c:v>
+                  <c:v>6475.39851390315</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>381.160369003689</c:v>
+                  <c:v>6236.59385651162</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>307.86279959718</c:v>
+                  <c:v>6694.36739455941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>270.802439537329</c:v>
+                  <c:v>6740.92039735835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>474.702508038585</c:v>
+                  <c:v>7196.10663719397</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>427.212123212321</c:v>
+                  <c:v>7301.6630473385</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>344.956689520078</c:v>
+                  <c:v>7405.44074767126</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>528.452587412587</c:v>
+                  <c:v>7162.11024270825</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>347.836450704225</c:v>
+                  <c:v>6464.89779929553</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>250.205870556061</c:v>
+                  <c:v>6351.9861344894</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>169.968541114058</c:v>
+                  <c:v>6585.46084308944</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>163.825562336529</c:v>
+                  <c:v>6706.87790375759</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>246.751971197119</c:v>
+                  <c:v>7334.54933734216</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>279.472345013477</c:v>
+                  <c:v>7531.8943808341</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>292.875350701402</c:v>
+                  <c:v>7476.59209485852</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>352.193922746781</c:v>
+                  <c:v>7462.57739260835</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>281.519317585301</c:v>
+                  <c:v>6661.53681191694</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>300.988563968668</c:v>
+                  <c:v>6586.99486057685</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>285.51876701361</c:v>
+                  <c:v>6945.7789788785</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>295.960954816709</c:v>
+                  <c:v>7273.13163668445</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>156.872109181141</c:v>
+                  <c:v>7881.22797444528</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>178.525648224607</c:v>
+                  <c:v>8266.1906118676</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>143.143641069887</c:v>
+                  <c:v>8457.401774609431</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>323.652774070543</c:v>
+                  <c:v>8181.63592319347</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>229.572511415525</c:v>
+                  <c:v>7607.60597662911</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170.147030185004</c:v>
+                  <c:v>7540.37932172583</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>118.410300429184</c:v>
+                  <c:v>7843.41774695486</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>213.457013118062</c:v>
+                  <c:v>8402.556977908251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,11 +2030,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$P$1</c:f>
+              <c:f>NoPeaks!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04learntMean_c1</c:v>
+                  <c:v>VAR04learntMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1839,200 +2042,398 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$P$2:$P$64</c:f>
+              <c:f>NoPeaks!$N$2:$N$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>1350.27543507112</c:v>
+                  <c:v>7695.7140322161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1357.61259586368</c:v>
+                  <c:v>7784.89185575571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1344.95339425187</c:v>
+                  <c:v>7757.77546354365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1297.89890117304</c:v>
+                  <c:v>7629.62949795957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1331.75048519133</c:v>
+                  <c:v>7420.66072940442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1226.57888435382</c:v>
+                  <c:v>7182.90685226266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1073.32272625499</c:v>
+                  <c:v>6978.38267408951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>971.353060251351</c:v>
+                  <c:v>6927.97464193859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>971.115668473919</c:v>
+                  <c:v>6905.09635931539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>909.9557928898409</c:v>
+                  <c:v>6925.88516054591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>839.138911314178</c:v>
+                  <c:v>6896.55743327611</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>796.3974544487251</c:v>
+                  <c:v>6881.65138135161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>719.498924086673</c:v>
+                  <c:v>6838.48259176657</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>629.705203633052</c:v>
+                  <c:v>6747.54507959365</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>511.146254960111</c:v>
+                  <c:v>6564.03197563376</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>442.608277699001</c:v>
+                  <c:v>6372.53512955731</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357.358026434921</c:v>
+                  <c:v>6132.61290144952</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>353.796906251068</c:v>
+                  <c:v>6057.50110290833</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>366.592932447638</c:v>
+                  <c:v>6044.36074755168</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>421.986795367975</c:v>
+                  <c:v>6098.24555447676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>490.343029728625</c:v>
+                  <c:v>6207.45709776357</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>562.905072241312</c:v>
+                  <c:v>6307.91812402144</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>608.996513811808</c:v>
+                  <c:v>6422.86296896232</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>600.831560240614</c:v>
+                  <c:v>6456.09222505439</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>549.485394203211</c:v>
+                  <c:v>6418.44893345237</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>518.469796541377</c:v>
+                  <c:v>6343.75820186404</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>488.394795968004</c:v>
+                  <c:v>6256.43491792965</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>458.436758186739</c:v>
+                  <c:v>6214.7339164793</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>458.693207593212</c:v>
+                  <c:v>6221.09375842845</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>452.604788068663</c:v>
+                  <c:v>6294.62758263153</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>502.40688283595</c:v>
+                  <c:v>6407.56481532786</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>525.090888698014</c:v>
+                  <c:v>6505.23746120889</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>554.418989025842</c:v>
+                  <c:v>6610.0862929725</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>498.676418846399</c:v>
+                  <c:v>6625.81893303793</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>410.992225862873</c:v>
+                  <c:v>6582.27126503221</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>353.113783593753</c:v>
+                  <c:v>6532.89869785697</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>307.262017228034</c:v>
+                  <c:v>6465.21812523554</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>312.065936706254</c:v>
+                  <c:v>6486.32237710227</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>297.573383306397</c:v>
+                  <c:v>6493.9481966545</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>338.845387882565</c:v>
+                  <c:v>6562.54238166842</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>361.186255739267</c:v>
+                  <c:v>6620.42152799693</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>388.233109597647</c:v>
+                  <c:v>6689.7024238391</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>398.20214621986</c:v>
+                  <c:v>6713.10036352216</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>351.873402384697</c:v>
+                  <c:v>6663.14925503929</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>289.824611854772</c:v>
+                  <c:v>6599.53061306916</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>253.032271768915</c:v>
+                  <c:v>6576.82503965075</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>212.382879980326</c:v>
+                  <c:v>6557.12119457358</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>222.540758510248</c:v>
+                  <c:v>6608.85355620803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>254.309791468044</c:v>
+                  <c:v>6682.21214543166</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>278.599889155699</c:v>
+                  <c:v>6740.85381081911</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>281.01838799492</c:v>
+                  <c:v>6774.38889701493</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>248.755648991407</c:v>
+                  <c:v>6744.07264269675</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>225.295553709321</c:v>
+                  <c:v>6714.62474864722</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>236.904881680077</c:v>
+                  <c:v>6731.2591870353</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>240.224122703459</c:v>
+                  <c:v>6756.87427636299</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>270.857102941968</c:v>
+                  <c:v>6836.5009746102</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>288.311487839949</c:v>
+                  <c:v>6916.0093408313</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>311.818220329388</c:v>
+                  <c:v>7000.34588145554</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>290.242106388088</c:v>
+                  <c:v>7033.09942929489</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>283.140471049724</c:v>
+                  <c:v>7053.59496704628</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>252.871503393379</c:v>
+                  <c:v>7058.71853244927</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>241.049250138874</c:v>
+                  <c:v>7087.60934231537</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242.036526571058</c:v>
+                  <c:v>7137.04907257257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,28 +2450,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134624056"/>
-        <c:axId val="2133292408"/>
+        <c:axId val="2133883832"/>
+        <c:axId val="2133880840"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2134624056"/>
+      <c:dateAx>
+        <c:axId val="2133883832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133292408"/>
+        <c:crossAx val="2133880840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2133292408"/>
+        <c:axId val="2133880840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134624056"/>
+        <c:crossAx val="2133883832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2128,11 +2529,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$Q$1</c:f>
+              <c:f>NoPeaks!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR07realMean_c0</c:v>
+                  <c:v>VAR04realMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2140,200 +2541,398 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$Q$2:$Q$64</c:f>
+              <c:f>NoPeaks!$O$2:$O$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>18393.3734110768</c:v>
+                  <c:v>1353.72213473315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18576.6235895492</c:v>
+                  <c:v>1354.60584474885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18821.7554070406</c:v>
+                  <c:v>1323.33831180017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19197.1048084072</c:v>
+                  <c:v>1228.0978313253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19218.748264169</c:v>
+                  <c:v>1631.71771152296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19324.4943747204</c:v>
+                  <c:v>782.937855361595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19544.6461585356</c:v>
+                  <c:v>506.002120441051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19514.0650999833</c:v>
+                  <c:v>615.524153498871</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19781.368561025</c:v>
+                  <c:v>995.817998423954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19596.6500055548</c:v>
+                  <c:v>691.1967691208</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19825.3632672448</c:v>
+                  <c:v>618.622829194883</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19948.6428171949</c:v>
+                  <c:v>696.548212867354</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20056.6569974622</c:v>
+                  <c:v>494.211636363636</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20400.9879942454</c:v>
+                  <c:v>448.412924126172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20265.6622453364</c:v>
+                  <c:v>363.648738007379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20544.0746249087</c:v>
+                  <c:v>421.723466440102</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20642.1196352402</c:v>
+                  <c:v>385.747689429373</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20425.4771513999</c:v>
+                  <c:v>475.87962721342</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20538.5503502758</c:v>
+                  <c:v>491.143627152988</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20401.4804605671</c:v>
+                  <c:v>593.270377524144</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20638.7780531956</c:v>
+                  <c:v>697.577497231451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20695.65291084</c:v>
+                  <c:v>910.727449584816</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21150.3467223969</c:v>
+                  <c:v>661.0428848484841</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21626.3545983844</c:v>
+                  <c:v>600.499030144167</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21405.1017899995</c:v>
+                  <c:v>468.742802802803</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21502.5289562579</c:v>
+                  <c:v>731.795600539811</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21623.9291393401</c:v>
+                  <c:v>755.577717546362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21322.5195710296</c:v>
+                  <c:v>546.554066225165</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21523.22596838</c:v>
+                  <c:v>595.863328631875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21236.2289061828</c:v>
+                  <c:v>288.463004975124</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21582.0540807837</c:v>
+                  <c:v>696.364572230013</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21402.5695920533</c:v>
+                  <c:v>485.278344459278</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21473.1751816836</c:v>
+                  <c:v>505.261182147164</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21340.9067809266</c:v>
+                  <c:v>188.061082737487</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21138.5736394572</c:v>
+                  <c:v>144.712145960034</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21296.7620692274</c:v>
+                  <c:v>258.067354685646</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21499.5323527689</c:v>
+                  <c:v>381.160369003689</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21212.3685714679</c:v>
+                  <c:v>307.86279959718</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21137.6200859228</c:v>
+                  <c:v>270.802439537329</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21007.1088551528</c:v>
+                  <c:v>474.702508038585</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20973.8923574773</c:v>
+                  <c:v>427.212123212321</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20639.2765139861</c:v>
+                  <c:v>344.956689520078</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20636.7155526334</c:v>
+                  <c:v>528.452587412587</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20411.751434905</c:v>
+                  <c:v>347.836450704225</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20458.3231337099</c:v>
+                  <c:v>250.205870556061</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20137.4970215689</c:v>
+                  <c:v>169.968541114058</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20076.9999660949</c:v>
+                  <c:v>163.825562336529</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19998.5813664729</c:v>
+                  <c:v>246.751971197119</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19922.9344919407</c:v>
+                  <c:v>279.472345013477</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19586.3907042887</c:v>
+                  <c:v>292.875350701402</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>19889.9270797376</c:v>
+                  <c:v>352.193922746781</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19692.7320380755</c:v>
+                  <c:v>281.519317585301</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19622.8493085652</c:v>
+                  <c:v>300.988563968668</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19269.5023020114</c:v>
+                  <c:v>285.51876701361</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19372.5464618226</c:v>
+                  <c:v>295.960954816709</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19123.2637540701</c:v>
+                  <c:v>156.872109181141</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19029.8581940592</c:v>
+                  <c:v>178.525648224607</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18803.6452885291</c:v>
+                  <c:v>143.143641069887</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19177.9600954417</c:v>
+                  <c:v>323.652774070543</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18938.7571608192</c:v>
+                  <c:v>229.572511415525</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19284.6160994186</c:v>
+                  <c:v>170.147030185004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>18742.6648919242</c:v>
+                  <c:v>118.410300429184</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19351.2824443302</c:v>
+                  <c:v>213.457013118062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,11 +2944,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$R$1</c:f>
+              <c:f>NoPeaks!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR07learntMean_c0</c:v>
+                  <c:v>VAR04learntMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2357,200 +2956,398 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$R$2:$R$64</c:f>
+              <c:f>NoPeaks!$P$2:$P$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>18391.1209555391</c:v>
+                  <c:v>1350.27543507112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18519.3733094365</c:v>
+                  <c:v>1357.61259586368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18669.6902707733</c:v>
+                  <c:v>1344.95339425187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18883.6075246252</c:v>
+                  <c:v>1297.89890117304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19026.7832799246</c:v>
+                  <c:v>1331.75048519133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19133.6730081565</c:v>
+                  <c:v>1226.57888435382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19271.737303153</c:v>
+                  <c:v>1073.32272625499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19338.7237756064</c:v>
+                  <c:v>971.353060251351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19448.6025503506</c:v>
+                  <c:v>971.115668473919</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19481.4694932682</c:v>
+                  <c:v>909.9557928898409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19564.1481586997</c:v>
+                  <c:v>839.138911314178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19654.5371140644</c:v>
+                  <c:v>796.3974544487251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19749.2340659075</c:v>
+                  <c:v>719.498924086673</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19911.5432356692</c:v>
+                  <c:v>629.705203633052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20056.6274487417</c:v>
+                  <c:v>511.146254960111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20211.6839839536</c:v>
+                  <c:v>442.608277699001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20393.7808852488</c:v>
+                  <c:v>357.358026434921</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20438.6302669573</c:v>
+                  <c:v>353.796906251068</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20470.4998278913</c:v>
+                  <c:v>366.592932447638</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20436.9647379671</c:v>
+                  <c:v>421.986795367975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20411.3009375632</c:v>
+                  <c:v>490.343029728625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20401.2787624331</c:v>
+                  <c:v>562.905072241312</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20411.5241740608</c:v>
+                  <c:v>608.996513811808</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20530.5621979949</c:v>
+                  <c:v>600.831560240614</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20675.3647471575</c:v>
+                  <c:v>549.485394203211</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20838.6848162429</c:v>
+                  <c:v>518.469796541377</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21010.8368951112</c:v>
+                  <c:v>488.394795968004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21113.2571643007</c:v>
+                  <c:v>458.436758186739</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21173.9893336255</c:v>
+                  <c:v>458.693207593212</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21146.0372476726</c:v>
+                  <c:v>452.604788068663</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21111.6943847735</c:v>
+                  <c:v>502.40688283595</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21077.0084813806</c:v>
+                  <c:v>525.090888698014</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21030.5912572298</c:v>
+                  <c:v>554.418989025842</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21094.8497001317</c:v>
+                  <c:v>498.676418846399</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21203.6317148255</c:v>
+                  <c:v>410.992225862873</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>21304.6202867248</c:v>
+                  <c:v>353.113783593753</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21420.2576377276</c:v>
+                  <c:v>307.262017228034</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21397.7566038812</c:v>
+                  <c:v>312.065936706254</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>21405.8316906628</c:v>
+                  <c:v>297.573383306397</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21330.4415291926</c:v>
+                  <c:v>338.845387882565</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21280.6347300625</c:v>
+                  <c:v>361.186255739267</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>21189.0460696506</c:v>
+                  <c:v>388.233109597647</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21168.1063013184</c:v>
+                  <c:v>398.20214621986</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21221.5030854456</c:v>
+                  <c:v>351.873402384697</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21294.4934355752</c:v>
+                  <c:v>289.824611854772</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21287.9485922917</c:v>
+                  <c:v>253.032271768915</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21289.9409659936</c:v>
+                  <c:v>212.382879980326</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21212.3240666464</c:v>
+                  <c:v>222.540758510248</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21100.6908173354</c:v>
+                  <c:v>254.309791468044</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20994.2855931703</c:v>
+                  <c:v>278.599889155699</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20954.6357111837</c:v>
+                  <c:v>281.01838799492</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20959.1453370339</c:v>
+                  <c:v>248.755648991407</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20951.1547412328</c:v>
+                  <c:v>225.295553709321</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20868.5460425998</c:v>
+                  <c:v>236.904881680077</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20809.5865357802</c:v>
+                  <c:v>240.224122703459</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20681.9368307341</c:v>
+                  <c:v>270.857102941968</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20581.8147865303</c:v>
+                  <c:v>288.311487839949</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20467.8842661194</c:v>
+                  <c:v>311.818220329388</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20458.087359811</c:v>
+                  <c:v>290.242106388088</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20411.7436018178</c:v>
+                  <c:v>283.140471049724</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20408.4691456293</c:v>
+                  <c:v>252.871503393379</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20356.2595666226</c:v>
+                  <c:v>241.049250138874</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>20320.688544284</c:v>
+                  <c:v>242.036526571058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,28 +3364,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132547448"/>
-        <c:axId val="2136072936"/>
+        <c:axId val="2133853592"/>
+        <c:axId val="2136013608"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2132547448"/>
+      <c:dateAx>
+        <c:axId val="2133853592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136072936"/>
+        <c:crossAx val="2136013608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2136072936"/>
+        <c:axId val="2136013608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +3396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132547448"/>
+        <c:crossAx val="2133853592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2646,11 +3443,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$S$1</c:f>
+              <c:f>NoPeaks!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR07realMean_c1</c:v>
+                  <c:v>VAR07realMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2660,198 +3457,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$S$2:$S$64</c:f>
+              <c:f>NoPeaks!$Q$2:$Q$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>21723.5806124234</c:v>
+                  <c:v>18393.3734110768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21292.2667214611</c:v>
+                  <c:v>18576.6235895492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23907.2126270456</c:v>
+                  <c:v>18821.7554070406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25551.9326969416</c:v>
+                  <c:v>19197.1048084072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27171.0731023368</c:v>
+                  <c:v>19218.748264169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27640.989127182</c:v>
+                  <c:v>19324.4943747204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26473.1823748939</c:v>
+                  <c:v>19544.6461585356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30661.4992626034</c:v>
+                  <c:v>19514.0650999833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30789.8107801418</c:v>
+                  <c:v>19781.368561025</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31557.542287348</c:v>
+                  <c:v>19596.6500055548</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31154.1777577125</c:v>
+                  <c:v>19825.3632672448</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33659.4696902303</c:v>
+                  <c:v>19948.6428171949</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32063.7319525691</c:v>
+                  <c:v>20056.6569974622</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35125.3676896845</c:v>
+                  <c:v>20400.9879942454</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32596.4047232472</c:v>
+                  <c:v>20265.6622453364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31927.2398810535</c:v>
+                  <c:v>20544.0746249087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33854.900767072</c:v>
+                  <c:v>20642.1196352402</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35697.5509226467</c:v>
+                  <c:v>20425.4771513999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36137.1363525835</c:v>
+                  <c:v>20538.5503502758</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36542.5653028972</c:v>
+                  <c:v>20401.4804605671</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37439.334440753</c:v>
+                  <c:v>20638.7780531956</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38920.5084697509</c:v>
+                  <c:v>20695.65291084</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38729.3840969697</c:v>
+                  <c:v>21150.3467223969</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40502.86</c:v>
+                  <c:v>21626.3545983844</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60627.6625625625</c:v>
+                  <c:v>21405.1017899995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75342.397462888</c:v>
+                  <c:v>21502.5289562579</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>80962.085021398</c:v>
+                  <c:v>21623.9291393401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>76857.4971125828</c:v>
+                  <c:v>21322.5195710296</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80905.7119040902</c:v>
+                  <c:v>21523.22596838</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69438.3339303482</c:v>
+                  <c:v>21236.2289061828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>82063.7315007012</c:v>
+                  <c:v>21582.0540807837</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>73573.8896395193</c:v>
+                  <c:v>21402.5695920533</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52955.1902291917</c:v>
+                  <c:v>21473.1751816836</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43042.1107456588</c:v>
+                  <c:v>21340.9067809266</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53982.8934317984</c:v>
+                  <c:v>21138.5736394572</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>53626.6042467378</c:v>
+                  <c:v>21296.7620692274</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48507.9968265682</c:v>
+                  <c:v>21499.5323527689</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45088.7330513595</c:v>
+                  <c:v>21212.3685714679</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45125.9273817034</c:v>
+                  <c:v>21137.6200859228</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49425.0135476955</c:v>
+                  <c:v>21007.1088551528</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53754.0565456545</c:v>
+                  <c:v>20973.8923574773</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>55367.9720078354</c:v>
+                  <c:v>20639.2765139861</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59830.2027372627</c:v>
+                  <c:v>20636.7155526334</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>58882.6521502347</c:v>
+                  <c:v>20411.751434905</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>70416.47731996349</c:v>
+                  <c:v>20458.3231337099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>68854.6239610963</c:v>
+                  <c:v>20137.4970215689</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>68391.8359197908</c:v>
+                  <c:v>20076.9999660949</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>68442.2235283528</c:v>
+                  <c:v>19998.5813664729</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>69489.9300089847</c:v>
+                  <c:v>19922.9344919407</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62424.9717434869</c:v>
+                  <c:v>19586.3907042887</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>68584.551776824</c:v>
+                  <c:v>19889.9270797376</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>63507.9401224847</c:v>
+                  <c:v>19692.7320380755</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>65158.2229416884</c:v>
+                  <c:v>19622.8493085652</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>65651.0020176141</c:v>
+                  <c:v>19269.5023020114</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67011.9759079284</c:v>
+                  <c:v>19372.5464618226</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>66098.0879239041</c:v>
+                  <c:v>19123.2637540701</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>68639.6241948802</c:v>
+                  <c:v>19029.8581940592</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>77052.4442968076</c:v>
+                  <c:v>18803.6452885291</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>86551.0006863679</c:v>
+                  <c:v>19177.9600954417</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>85763.5054429223</c:v>
+                  <c:v>18938.7571608192</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>85127.069406037</c:v>
+                  <c:v>19284.6160994186</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>83199.1801201716</c:v>
+                  <c:v>18742.6648919242</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>79189.3917053481</c:v>
+                  <c:v>19351.2824443302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,11 +3660,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$T$1</c:f>
+              <c:f>NoPeaks!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR07learntMean_c1</c:v>
+                  <c:v>VAR07learntMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2877,198 +3674,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$T$2:$T$64</c:f>
+              <c:f>NoPeaks!$R$2:$R$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>21740.5905524772</c:v>
+                  <c:v>18391.1209555391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21454.5765876714</c:v>
+                  <c:v>18519.3733094365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22684.7576778172</c:v>
+                  <c:v>18669.6902707733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23766.6739831954</c:v>
+                  <c:v>18883.6075246252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25129.3077750044</c:v>
+                  <c:v>19026.7832799246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25971.4561379278</c:v>
+                  <c:v>19133.6730081565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26229.373631918</c:v>
+                  <c:v>19271.737303153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27336.0406353943</c:v>
+                  <c:v>19338.7237756064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28090.9423120115</c:v>
+                  <c:v>19448.6025503506</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28775.3934458938</c:v>
+                  <c:v>19481.4694932682</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29299.2058752611</c:v>
+                  <c:v>19564.1481586997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30111.5836253984</c:v>
+                  <c:v>19654.5371140644</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30581.4519827365</c:v>
+                  <c:v>19749.2340659075</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31582.6536575643</c:v>
+                  <c:v>19911.5432356692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32351.7876661567</c:v>
+                  <c:v>20056.6274487417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32801.4298761821</c:v>
+                  <c:v>20211.6839839536</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33680.560024267</c:v>
+                  <c:v>20393.7808852488</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34201.259157019</c:v>
+                  <c:v>20438.6302669573</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34513.6307676768</c:v>
+                  <c:v>20470.4998278913</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34554.2999430261</c:v>
+                  <c:v>20436.9647379671</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34389.3127591607</c:v>
+                  <c:v>20411.3009375632</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34347.3102733244</c:v>
+                  <c:v>20401.2787624331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34118.2494169521</c:v>
+                  <c:v>20411.5241740608</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34481.5331372826</c:v>
+                  <c:v>20530.5621979949</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36111.5107201682</c:v>
+                  <c:v>20675.3647471575</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37922.424612809</c:v>
+                  <c:v>20838.6848162429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39810.8423405795</c:v>
+                  <c:v>21010.8368951112</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41347.2306078831</c:v>
+                  <c:v>21113.2571643007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42423.2665344476</c:v>
+                  <c:v>21173.9893336255</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42868.1677034825</c:v>
+                  <c:v>21146.0372476726</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42955.1087406564</c:v>
+                  <c:v>21111.6943847735</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42962.7126151301</c:v>
+                  <c:v>21077.0084813806</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42512.7350423021</c:v>
+                  <c:v>21030.5912572298</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42937.7493829677</c:v>
+                  <c:v>21094.8497001317</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44146.8217009375</c:v>
+                  <c:v>21203.6317148255</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45186.2957863292</c:v>
+                  <c:v>21304.6202867248</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>46190.1487072346</c:v>
+                  <c:v>21420.2576377276</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46072.1676845765</c:v>
+                  <c:v>21397.7566038812</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46255.6985349992</c:v>
+                  <c:v>21405.8316906628</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45840.6667170541</c:v>
+                  <c:v>21330.4415291926</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45721.6319295432</c:v>
+                  <c:v>21280.6347300625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45382.066291069</c:v>
+                  <c:v>21189.0460696506</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45741.5303132201</c:v>
+                  <c:v>21168.1063013184</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46922.6802751112</c:v>
+                  <c:v>21221.5030854456</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>48657.0086150516</c:v>
+                  <c:v>21294.4934355752</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49778.6140605091</c:v>
+                  <c:v>21287.9485922917</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51034.2006317524</c:v>
+                  <c:v>21289.9409659936</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51397.3949554477</c:v>
+                  <c:v>21212.3240666464</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51317.0560152707</c:v>
+                  <c:v>21100.6908173354</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51260.3063285435</c:v>
+                  <c:v>20994.2855931703</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51829.8375195501</c:v>
+                  <c:v>20954.6357111837</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52907.4378475016</c:v>
+                  <c:v>20959.1453370339</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53919.6113271756</c:v>
+                  <c:v>20951.1547412328</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54138.4677627128</c:v>
+                  <c:v>20868.5460425998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54548.8706250522</c:v>
+                  <c:v>20809.5865357802</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>53976.3145264427</c:v>
+                  <c:v>20681.9368307341</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>53776.1761006481</c:v>
+                  <c:v>20581.8147865303</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53517.1656729579</c:v>
+                  <c:v>20467.8842661194</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>54764.0800616436</c:v>
+                  <c:v>20458.087359811</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>55511.1039371249</c:v>
+                  <c:v>20411.7436018178</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56703.8245034744</c:v>
+                  <c:v>20408.4691456293</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>57364.6471034225</c:v>
+                  <c:v>20356.2595666226</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>57702.798258915</c:v>
+                  <c:v>20320.688544284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3085,11 +3882,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131819544"/>
-        <c:axId val="2135215992"/>
+        <c:axId val="2136041048"/>
+        <c:axId val="2136044024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131819544"/>
+        <c:axId val="2136041048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,7 +3895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135215992"/>
+        <c:crossAx val="2136044024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3106,7 +3903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135215992"/>
+        <c:axId val="2136044024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +3914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131819544"/>
+        <c:crossAx val="2136041048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3164,11 +3961,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$U$1</c:f>
+              <c:f>NoPeaks!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR08realMean_c0</c:v>
+                  <c:v>VAR07realMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3178,198 +3975,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$U$2:$U$64</c:f>
+              <c:f>NoPeaks!$S$2:$S$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3728.49966532353</c:v>
+                  <c:v>21723.5806124234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3683.31417538874</c:v>
+                  <c:v>21292.2667214611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3616.52747326885</c:v>
+                  <c:v>23907.2126270456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3624.58027009646</c:v>
+                  <c:v>25551.9326969416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3658.14690468462</c:v>
+                  <c:v>27171.0731023368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3653.15922397175</c:v>
+                  <c:v>27640.989127182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3688.48576707051</c:v>
+                  <c:v>26473.1823748939</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3568.46521304091</c:v>
+                  <c:v>30661.4992626034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3513.49953379953</c:v>
+                  <c:v>30789.8107801418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3443.41289315257</c:v>
+                  <c:v>31557.542287348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3337.53601304733</c:v>
+                  <c:v>31154.1777577125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3291.63092029171</c:v>
+                  <c:v>33659.4696902303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3363.88914681744</c:v>
+                  <c:v>32063.7319525691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3377.78689755432</c:v>
+                  <c:v>35125.3676896845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3444.05282511742</c:v>
+                  <c:v>32596.4047232472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3429.46360981569</c:v>
+                  <c:v>31927.2398810535</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3413.22589973583</c:v>
+                  <c:v>33854.900767072</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3249.34416361038</c:v>
+                  <c:v>35697.5509226467</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3182.57223655756</c:v>
+                  <c:v>36137.1363525835</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3121.14326673312</c:v>
+                  <c:v>36542.5653028972</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2974.56678734884</c:v>
+                  <c:v>37439.334440753</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2945.19688313589</c:v>
+                  <c:v>38920.5084697509</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2819.31609600551</c:v>
+                  <c:v>38729.3840969697</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2785.13391332291</c:v>
+                  <c:v>40502.86</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2793.51512561025</c:v>
+                  <c:v>60627.6625625625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2738.42084177842</c:v>
+                  <c:v>75342.397462888</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2783.61923259869</c:v>
+                  <c:v>80962.085021398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2648.96402064048</c:v>
+                  <c:v>76857.4971125828</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2615.37798311886</c:v>
+                  <c:v>80905.7119040902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2520.44372327881</c:v>
+                  <c:v>69438.3339303482</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2437.39278057784</c:v>
+                  <c:v>82063.7315007012</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2390.83256979525</c:v>
+                  <c:v>73573.8896395193</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2248.93568524128</c:v>
+                  <c:v>52955.1902291917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2249.36675902921</c:v>
+                  <c:v>43042.1107456588</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2259.76804821933</c:v>
+                  <c:v>53982.8934317984</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2304.29502749687</c:v>
+                  <c:v>53626.6042467378</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2354.41452196094</c:v>
+                  <c:v>48507.9968265682</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2243.6446251844</c:v>
+                  <c:v>45088.7330513595</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2201.36033896419</c:v>
+                  <c:v>45125.9273817034</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2097.65576649845</c:v>
+                  <c:v>49425.0135476955</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2049.38815773019</c:v>
+                  <c:v>53754.0565456545</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2000.21471016387</c:v>
+                  <c:v>55367.9720078354</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2048.25273665803</c:v>
+                  <c:v>59830.2027372627</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1999.59343433381</c:v>
+                  <c:v>58882.6521502347</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2004.28475349078</c:v>
+                  <c:v>70416.47731996349</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1906.4847834346</c:v>
+                  <c:v>68854.6239610963</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1864.42124888206</c:v>
+                  <c:v>68391.8359197908</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1783.10522990579</c:v>
+                  <c:v>68442.2235283528</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1743.68509488134</c:v>
+                  <c:v>69489.9300089847</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1701.35498934099</c:v>
+                  <c:v>62424.9717434869</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1754.33088026393</c:v>
+                  <c:v>68584.551776824</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1756.10784460165</c:v>
+                  <c:v>63507.9401224847</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1760.97726656719</c:v>
+                  <c:v>65158.2229416884</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1713.76844886912</c:v>
+                  <c:v>65651.0020176141</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1682.12779758212</c:v>
+                  <c:v>67011.9759079284</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1541.11909431888</c:v>
+                  <c:v>66098.0879239041</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1513.78174027013</c:v>
+                  <c:v>68639.6241948802</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1497.12891854997</c:v>
+                  <c:v>77052.4442968076</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1556.77674336934</c:v>
+                  <c:v>86551.0006863679</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1688.08491775087</c:v>
+                  <c:v>85763.5054429223</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1709.36590482235</c:v>
+                  <c:v>85127.069406037</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1615.75040174611</c:v>
+                  <c:v>83199.1801201716</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1654.65091757798</c:v>
+                  <c:v>79189.3917053481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3381,11 +4178,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$V$1</c:f>
+              <c:f>NoPeaks!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR08learntMean_c0</c:v>
+                  <c:v>VAR07learntMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3395,198 +4192,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$V$2:$V$64</c:f>
+              <c:f>NoPeaks!$T$2:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3728.61024582136</c:v>
+                  <c:v>21740.5905524772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3697.68606809757</c:v>
+                  <c:v>21454.5765876714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3657.18305512313</c:v>
+                  <c:v>22684.7576778172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3642.64259850017</c:v>
+                  <c:v>23766.6739831954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3644.75313411905</c:v>
+                  <c:v>25129.3077750044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3646.23341555671</c:v>
+                  <c:v>25971.4561379278</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3657.10056324461</c:v>
+                  <c:v>26229.373631918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3633.05216065372</c:v>
+                  <c:v>27336.0406353943</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3603.77433582126</c:v>
+                  <c:v>28090.9423120115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3568.71958547943</c:v>
+                  <c:v>28775.3934458938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3518.41708170658</c:v>
+                  <c:v>29299.2058752611</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3469.68334467224</c:v>
+                  <c:v>30111.5836253984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3444.10433409474</c:v>
+                  <c:v>30581.4519827365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3420.26921197556</c:v>
+                  <c:v>31582.6536575643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3407.80998285454</c:v>
+                  <c:v>32351.7876661567</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3398.43832749787</c:v>
+                  <c:v>32801.4298761821</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3382.09346950545</c:v>
+                  <c:v>33680.560024267</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3349.41307449097</c:v>
+                  <c:v>34201.259157019</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3316.46358603711</c:v>
+                  <c:v>34513.6307676768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3289.43606437192</c:v>
+                  <c:v>34554.2999430261</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3255.1391828974</c:v>
+                  <c:v>34389.3127591607</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3224.6513800162</c:v>
+                  <c:v>34347.3102733244</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3191.90909651845</c:v>
+                  <c:v>34118.2494169521</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3141.64698607764</c:v>
+                  <c:v>34481.5331372826</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3081.46840093846</c:v>
+                  <c:v>36111.5107201682</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3013.89398122767</c:v>
+                  <c:v>37922.424612809</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2955.40859203588</c:v>
+                  <c:v>39810.8423405795</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2894.73446122982</c:v>
+                  <c:v>41347.2306078831</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2852.59624548224</c:v>
+                  <c:v>42423.2665344476</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2823.96159828948</c:v>
+                  <c:v>42868.1677034825</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2803.82043654239</c:v>
+                  <c:v>42955.1087406564</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2780.67962211919</c:v>
+                  <c:v>42962.7126151301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2755.59065213327</c:v>
+                  <c:v>42512.7350423021</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2692.4168906408</c:v>
+                  <c:v>42937.7493829677</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2611.48761837964</c:v>
+                  <c:v>44146.8217009375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2545.34328162818</c:v>
+                  <c:v>45186.2957863292</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2486.05757219501</c:v>
+                  <c:v>46190.1487072346</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2466.29242804544</c:v>
+                  <c:v>46072.1676845765</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2431.98017514083</c:v>
+                  <c:v>46255.6985349992</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2424.41695835778</c:v>
+                  <c:v>45840.6667170541</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2406.09813162292</c:v>
+                  <c:v>45721.6319295432</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2400.20284152593</c:v>
+                  <c:v>45382.066291069</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2371.2648378447</c:v>
+                  <c:v>45741.5303132201</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2299.78131007907</c:v>
+                  <c:v>46922.6802751112</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2222.38773062135</c:v>
+                  <c:v>48657.0086150516</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2170.1079130216</c:v>
+                  <c:v>49778.6140605091</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2111.08696840797</c:v>
+                  <c:v>51034.2006317524</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2090.79094015773</c:v>
+                  <c:v>51397.3949554477</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2091.49882638597</c:v>
+                  <c:v>51317.0560152707</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2084.07738083255</c:v>
+                  <c:v>51260.3063285435</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2056.11538471908</c:v>
+                  <c:v>51829.8375195501</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1998.32034316399</c:v>
+                  <c:v>52907.4378475016</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1949.61055141496</c:v>
+                  <c:v>53919.6113271756</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1939.88827246256</c:v>
+                  <c:v>54138.4677627128</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1920.36815518795</c:v>
+                  <c:v>54548.8706250522</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1938.83060640774</c:v>
+                  <c:v>53976.3145264427</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1941.00403972059</c:v>
+                  <c:v>53776.1761006481</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1954.14558307505</c:v>
+                  <c:v>53517.1656729579</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1904.99152449143</c:v>
+                  <c:v>54764.0800616436</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1888.76571025445</c:v>
+                  <c:v>55511.1039371249</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1850.63904968942</c:v>
+                  <c:v>56703.8245034744</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1833.99127410452</c:v>
+                  <c:v>57364.6471034225</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1827.58901957453</c:v>
+                  <c:v>57702.798258915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,11 +4400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131493400"/>
-        <c:axId val="2080418792"/>
+        <c:axId val="2136071688"/>
+        <c:axId val="2136074664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131493400"/>
+        <c:axId val="2136071688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +4413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080418792"/>
+        <c:crossAx val="2136074664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3624,7 +4421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080418792"/>
+        <c:axId val="2136074664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +4432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131493400"/>
+        <c:crossAx val="2136071688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3682,6 +4479,524 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>NoPeaks!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR08realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>NoPeaks!$U$2:$U$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3728.49966532353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3683.31417538874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3616.52747326885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3624.58027009646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3658.14690468462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3653.15922397175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3688.48576707051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3568.46521304091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3513.49953379953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3443.41289315257</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3337.53601304733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3291.63092029171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3363.88914681744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3377.78689755432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3444.05282511742</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3429.46360981569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3413.22589973583</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3249.34416361038</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3182.57223655756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3121.14326673312</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2974.56678734884</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2945.19688313589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2819.31609600551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2785.13391332291</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2793.51512561025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2738.42084177842</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2783.61923259869</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2648.96402064048</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2615.37798311886</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2520.44372327881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2437.39278057784</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2390.83256979525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2248.93568524128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2249.36675902921</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2259.76804821933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2304.29502749687</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2354.41452196094</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2243.6446251844</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2201.36033896419</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2097.65576649845</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2049.38815773019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000.21471016387</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2048.25273665803</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1999.59343433381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2004.28475349078</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1906.4847834346</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1864.42124888206</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1783.10522990579</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1743.68509488134</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1701.35498934099</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1754.33088026393</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1756.10784460165</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1760.97726656719</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1713.76844886912</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1682.12779758212</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1541.11909431888</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1513.78174027013</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1497.12891854997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1556.77674336934</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1688.08491775087</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1709.36590482235</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1615.75040174611</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1654.65091757798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NoPeaks!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR08learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>NoPeaks!$V$2:$V$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>3728.61024582136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3697.68606809757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657.18305512313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3642.64259850017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3644.75313411905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3646.23341555671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3657.10056324461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3633.05216065372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3603.77433582126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3568.71958547943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3518.41708170658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3469.68334467224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3444.10433409474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3420.26921197556</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3407.80998285454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3398.43832749787</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3382.09346950545</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3349.41307449097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3316.46358603711</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3289.43606437192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3255.1391828974</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3224.6513800162</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3191.90909651845</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3141.64698607764</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3081.46840093846</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3013.89398122767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2955.40859203588</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2894.73446122982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2852.59624548224</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2823.96159828948</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2803.82043654239</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2780.67962211919</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2755.59065213327</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2692.4168906408</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2611.48761837964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2545.34328162818</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2486.05757219501</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2466.29242804544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2431.98017514083</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2424.41695835778</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2406.09813162292</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2400.20284152593</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2371.2648378447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2299.78131007907</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2222.38773062135</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2170.1079130216</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2111.08696840797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2090.79094015773</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2091.49882638597</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2084.07738083255</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2056.11538471908</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1998.32034316399</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1949.61055141496</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1939.88827246256</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1920.36815518795</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1938.83060640774</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1941.00403972059</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1954.14558307505</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1904.99152449143</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1888.76571025445</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1850.63904968942</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1833.99127410452</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1827.58901957453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2137084680"/>
+        <c:axId val="2137087656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2137084680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137087656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137087656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137084680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>NoPeaks!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4121,11 +5436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134180488"/>
-        <c:axId val="2133221304"/>
+        <c:axId val="2137114840"/>
+        <c:axId val="2137117816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134180488"/>
+        <c:axId val="2137114840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4134,7 +5449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133221304"/>
+        <c:crossAx val="2137117816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4142,7 +5457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133221304"/>
+        <c:axId val="2137117816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4153,7 +5468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134180488"/>
+        <c:crossAx val="2137114840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6041,11 +7356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2081347160"/>
-        <c:axId val="2081350328"/>
+        <c:axId val="2135306344"/>
+        <c:axId val="2135309464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2081347160"/>
+        <c:axId val="2135306344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,14 +7370,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081350328"/>
+        <c:crossAx val="2135309464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2081350328"/>
+        <c:axId val="2135309464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6073,7 +7388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081347160"/>
+        <c:crossAx val="2135306344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6115,11 +7430,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$A$1</c:f>
+              <c:f>NoPeaks!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR01realMean_c0</c:v>
+                  <c:v>meanH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6129,198 +7444,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$A$2:$A$64</c:f>
+              <c:f>NoPeaks!$Y$2:$Y$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>58371.9364778383</c:v>
+                  <c:v>10.8072435130333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58891.8462388507</c:v>
+                  <c:v>10.0648305383034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59324.6576402321</c:v>
+                  <c:v>9.71988904822459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60083.1934750215</c:v>
+                  <c:v>10.1813306138574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61043.1368912381</c:v>
+                  <c:v>11.8825396253933</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60696.358897645</c:v>
+                  <c:v>12.5086720371748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61615.5286326571</c:v>
+                  <c:v>13.3995662129006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61644.7151645229</c:v>
+                  <c:v>13.538490842902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61587.1840577722</c:v>
+                  <c:v>13.7851514670233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62330.4058010178</c:v>
+                  <c:v>13.8414410000992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62354.1118643558</c:v>
+                  <c:v>14.3239885692746</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61844.9621766899</c:v>
+                  <c:v>14.8998477112621</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62726.7114850926</c:v>
+                  <c:v>15.5464940866679</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63331.1122889376</c:v>
+                  <c:v>16.8425100084196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63194.5296409891</c:v>
+                  <c:v>18.8112332380767</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63208.9634518825</c:v>
+                  <c:v>20.415325846466</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63357.2825097383</c:v>
+                  <c:v>22.7502123271542</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62413.8865567878</c:v>
+                  <c:v>23.5969505198896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62241.0297903641</c:v>
+                  <c:v>23.938405153761</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63316.2282032389</c:v>
+                  <c:v>23.4533557438646</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63176.1540598634</c:v>
+                  <c:v>22.4317542714871</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62472.3763782525</c:v>
+                  <c:v>21.6199421147928</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>64044.1820715014</c:v>
+                  <c:v>20.4606706077493</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63603.3069923021</c:v>
+                  <c:v>20.7001562067842</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63535.7330942112</c:v>
+                  <c:v>21.8770009350111</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63435.5369643652</c:v>
+                  <c:v>23.4061551525846</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63385.6177119218</c:v>
+                  <c:v>25.0926738248192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61959.2577366354</c:v>
+                  <c:v>26.2892232753235</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>62607.4065610762</c:v>
+                  <c:v>26.7134766823723</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>61643.708296919</c:v>
+                  <c:v>26.2091560965992</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>61728.4304678072</c:v>
+                  <c:v>25.2363785630722</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61140.5527019569</c:v>
+                  <c:v>24.4479027111999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>59500.6692497358</c:v>
+                  <c:v>23.4327580591262</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60390.6739096868</c:v>
+                  <c:v>24.1168503120999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59499.4282565268</c:v>
+                  <c:v>25.6656436367341</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59589.5019620529</c:v>
+                  <c:v>27.0602331054226</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60526.5887010217</c:v>
+                  <c:v>28.5784982958522</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59408.5400322629</c:v>
+                  <c:v>28.42921900054</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59392.700729927</c:v>
+                  <c:v>28.7633907262551</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58135.240716798</c:v>
+                  <c:v>27.970224189714</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57514.3877395061</c:v>
+                  <c:v>27.5021581334971</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>56888.4547118149</c:v>
+                  <c:v>26.6003996586492</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56865.4403021612</c:v>
+                  <c:v>26.6593353741743</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56194.3126028477</c:v>
+                  <c:v>27.9990192789303</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>56162.4157218856</c:v>
+                  <c:v>29.6835209653212</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>55348.9161625823</c:v>
+                  <c:v>30.485317618033</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54509.857838884</c:v>
+                  <c:v>31.5017036388935</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>53541.5781385715</c:v>
+                  <c:v>31.284121881674</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>53548.175153239</c:v>
+                  <c:v>30.4413204017466</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>52755.8492114984</c:v>
+                  <c:v>29.7931126510296</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>53514.5665480621</c:v>
+                  <c:v>29.9163601054611</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52888.176744565</c:v>
+                  <c:v>30.9414965631263</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52549.2053496872</c:v>
+                  <c:v>31.8289972461111</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>52371.8633971194</c:v>
+                  <c:v>31.6292750973672</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51624.278014419</c:v>
+                  <c:v>31.6773385323485</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50212.0766641478</c:v>
+                  <c:v>30.497350675282</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>50368.3070513085</c:v>
+                  <c:v>29.732193995007</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>49577.2927209299</c:v>
+                  <c:v>28.6976343865524</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50413.089961625</c:v>
+                  <c:v>29.3839872804105</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50757.8478496821</c:v>
+                  <c:v>29.4864399672066</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>50917.3867259062</c:v>
+                  <c:v>30.2086487229794</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>49957.3329578258</c:v>
+                  <c:v>30.2991190346925</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>50586.1577981651</c:v>
+                  <c:v>30.2237079922468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6332,11 +7647,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$B$1</c:f>
+              <c:f>NoPeaks!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR01learntMean_c0</c:v>
+                  <c:v>Unemployment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6346,198 +7661,189 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$B$2:$B$64</c:f>
+              <c:f>NoPeaks!$AA$5:$AA$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>58368.7109135605</c:v>
+                  <c:v>12.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58728.7392678733</c:v>
+                  <c:v>12.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59025.4938036294</c:v>
+                  <c:v>10.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59459.4428550979</c:v>
+                  <c:v>10.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60102.638436894</c:v>
+                  <c:v>13.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60327.5028232354</c:v>
+                  <c:v>13.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60758.8049211723</c:v>
+                  <c:v>13.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61001.8045966693</c:v>
+                  <c:v>17.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61157.8043156556</c:v>
+                  <c:v>17.57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61410.0456496513</c:v>
+                  <c:v>21.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61636.7074072561</c:v>
+                  <c:v>21.74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61731.5844824443</c:v>
+                  <c:v>21.74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61967.3003618704</c:v>
+                  <c:v>24.98</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62332.2337076708</c:v>
+                  <c:v>24.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62704.3322196664</c:v>
+                  <c:v>24.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62977.7552963051</c:v>
+                  <c:v>24.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63319.1306650499</c:v>
+                  <c:v>24.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63271.1593856097</c:v>
+                  <c:v>27.47</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63155.4464812385</c:v>
+                  <c:v>27.47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63120.9419815413</c:v>
+                  <c:v>30.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63005.8218333448</c:v>
+                  <c:v>30.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62852.7363452712</c:v>
+                  <c:v>30.64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62817.5513988794</c:v>
+                  <c:v>24.46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62912.6128348859</c:v>
+                  <c:v>24.46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63114.6837788312</c:v>
+                  <c:v>27.79</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63337.5019475564</c:v>
+                  <c:v>27.79</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63557.4392639846</c:v>
+                  <c:v>27.79</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63571.2781352353</c:v>
+                  <c:v>29.43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63544.7212424891</c:v>
+                  <c:v>29.43</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63334.8547354411</c:v>
+                  <c:v>27.49</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>63106.4092648058</c:v>
+                  <c:v>27.49</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62888.2345647783</c:v>
+                  <c:v>27.49</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62573.0987474483</c:v>
+                  <c:v>27.09</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62524.8450818738</c:v>
+                  <c:v>27.09</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62510.1686740061</c:v>
+                  <c:v>32.04</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>62477.1045166161</c:v>
+                  <c:v>32.04</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62504.7215781808</c:v>
+                  <c:v>35.29</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62301.1923155339</c:v>
+                  <c:v>35.29</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62160.7744109907</c:v>
+                  <c:v>35.57</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>61868.0283624023</c:v>
+                  <c:v>35.57</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61600.6304892526</c:v>
+                  <c:v>33.21</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>61296.5777191737</c:v>
+                  <c:v>33.21</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61092.1099709905</c:v>
+                  <c:v>35.28</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>60942.090971193</c:v>
+                  <c:v>35.28</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>60803.9477451118</c:v>
+                  <c:v>35.32</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60565.4999784159</c:v>
+                  <c:v>35.32</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>60297.0952791475</c:v>
+                  <c:v>38.44</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>59942.2955969613</c:v>
+                  <c:v>38.44</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59603.7577680843</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>59270.5907169107</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59025.2707607275</c:v>
+                  <c:v>37.11</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>58777.6862122905</c:v>
+                  <c:v>37.11</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58517.8096513794</c:v>
+                  <c:v>35.74</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>58253.6777443124</c:v>
+                  <c:v>35.74</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>57982.9694675379</c:v>
+                  <c:v>38.77</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57686.9634972038</c:v>
+                  <c:v>38.77</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57429.5376211653</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57177.7000927701</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>56944.4422834868</c:v>
+                  <c:v>33.35</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56741.858126881</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56538.0018964563</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>56324.0196223355</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>56153.5712038812</c:v>
+                  <c:v>33.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6554,11 +7860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130066680"/>
-        <c:axId val="2130366792"/>
+        <c:axId val="2144429976"/>
+        <c:axId val="2144438776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130066680"/>
+        <c:axId val="2144429976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6567,7 +7873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130366792"/>
+        <c:crossAx val="2144438776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6575,7 +7881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130366792"/>
+        <c:axId val="2144438776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6586,7 +7892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130066680"/>
+        <c:crossAx val="2144429976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6600,11 +7906,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6633,11 +7934,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$C$1</c:f>
+              <c:f>NoPeaks!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR01realMean_c1</c:v>
+                  <c:v>VAR01realMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6647,198 +7948,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$C$2:$C$64</c:f>
+              <c:f>NoPeaks!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>76836.3954505686</c:v>
+                  <c:v>58371.9364778383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75775.34246575341</c:v>
+                  <c:v>58891.8462388507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92232.5581395348</c:v>
+                  <c:v>59324.6576402321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100478.220574606</c:v>
+                  <c:v>60083.1934750215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107495.568090249</c:v>
+                  <c:v>61043.1368912381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114851.205320033</c:v>
+                  <c:v>60696.358897645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121279.050042408</c:v>
+                  <c:v>61615.5286326571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>127614.747930775</c:v>
+                  <c:v>61644.7151645229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127784.081954294</c:v>
+                  <c:v>61587.1840577722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126753.395282344</c:v>
+                  <c:v>62330.4058010178</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148866.817155756</c:v>
+                  <c:v>62354.1118643558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156911.834789515</c:v>
+                  <c:v>61844.9621766899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>153483.003952569</c:v>
+                  <c:v>62726.7114850926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>151897.698209718</c:v>
+                  <c:v>63331.1122889376</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150157.933579335</c:v>
+                  <c:v>63194.5296409891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>149515.717926932</c:v>
+                  <c:v>63208.9634518825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>156445.27595884</c:v>
+                  <c:v>63357.2825097383</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>161383.038210624</c:v>
+                  <c:v>62413.8865567878</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>166389.057750759</c:v>
+                  <c:v>62241.0297903641</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>165316.944688323</c:v>
+                  <c:v>63316.2282032389</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>143534.88372093</c:v>
+                  <c:v>63176.1540598634</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>177492.289442467</c:v>
+                  <c:v>62472.3763782525</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>136664.242424242</c:v>
+                  <c:v>64044.1820715014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>153719.528178243</c:v>
+                  <c:v>63603.3069923021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>153301.301301301</c:v>
+                  <c:v>63535.7330942112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>184232.118758434</c:v>
+                  <c:v>63435.5369643652</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>183360.912981455</c:v>
+                  <c:v>63385.6177119218</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>205210.59602649</c:v>
+                  <c:v>61959.2577366354</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199906.911142454</c:v>
+                  <c:v>62607.4065610762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>195657.711442786</c:v>
+                  <c:v>61643.708296919</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>206036.465638148</c:v>
+                  <c:v>61728.4304678072</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>217148.197596795</c:v>
+                  <c:v>61140.5527019569</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>200007.237635705</c:v>
+                  <c:v>59500.6692497358</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>183477.017364657</c:v>
+                  <c:v>60390.6739096868</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>208012.163336229</c:v>
+                  <c:v>59499.4282565268</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>202604.982206405</c:v>
+                  <c:v>59589.5019620529</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>192273.062730627</c:v>
+                  <c:v>60526.5887010217</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>185055.387713998</c:v>
+                  <c:v>59408.5400322629</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>178014.721345951</c:v>
+                  <c:v>59392.700729927</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>171584.137191854</c:v>
+                  <c:v>58135.240716798</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>182572.05720572</c:v>
+                  <c:v>57514.3877395061</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>179030.362389813</c:v>
+                  <c:v>56888.4547118149</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>193648.351648351</c:v>
+                  <c:v>56865.4403021612</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>206713.615023474</c:v>
+                  <c:v>56194.3126028477</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>238650.865998176</c:v>
+                  <c:v>56162.4157218856</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>216406.719717064</c:v>
+                  <c:v>55348.9161625823</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>397377.506538796</c:v>
+                  <c:v>54509.857838884</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>402586.858685868</c:v>
+                  <c:v>53541.5781385715</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>405994.60916442</c:v>
+                  <c:v>53548.175153239</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>337112.892451569</c:v>
+                  <c:v>52755.8492114984</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>393787.124463519</c:v>
+                  <c:v>53514.5665480621</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>166755.905511811</c:v>
+                  <c:v>52888.176744565</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>181300.261096605</c:v>
+                  <c:v>52549.2053496872</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>172142.514011208</c:v>
+                  <c:v>52371.8633971194</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>166956.52173913</c:v>
+                  <c:v>51624.278014419</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>172375.516956162</c:v>
+                  <c:v>50212.0766641478</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>160888.521882741</c:v>
+                  <c:v>50368.3070513085</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>181164.797238999</c:v>
+                  <c:v>49577.2927209299</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>193803.622497616</c:v>
+                  <c:v>50413.089961625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>195689.497716894</c:v>
+                  <c:v>50757.8478496821</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>211573.515092502</c:v>
+                  <c:v>50917.3867259062</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>202765.665236051</c:v>
+                  <c:v>49957.3329578258</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>207521.695257315</c:v>
+                  <c:v>50586.1577981651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6850,11 +8151,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$D$1</c:f>
+              <c:f>NoPeaks!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR01learntMean_c1</c:v>
+                  <c:v>VAR01learntMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6864,198 +8165,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$D$2:$D$64</c:f>
+              <c:f>NoPeaks!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>76898.5459072041</c:v>
+                  <c:v>58368.7109135605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76207.6598907858</c:v>
+                  <c:v>58728.7392678733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82345.8244425383</c:v>
+                  <c:v>59025.4938036294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87421.4507268151</c:v>
+                  <c:v>59459.4428550979</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93696.49668489231</c:v>
+                  <c:v>60102.638436894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99124.3204776486</c:v>
+                  <c:v>60327.5028232354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>104393.149831109</c:v>
+                  <c:v>60758.8049211723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108974.418255737</c:v>
+                  <c:v>61001.8045966693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112324.008218856</c:v>
+                  <c:v>61157.8043156556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114691.700699101</c:v>
+                  <c:v>61410.0456496513</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>119556.150556708</c:v>
+                  <c:v>61636.7074072561</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>124161.742589027</c:v>
+                  <c:v>61731.5844824443</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127878.991631805</c:v>
+                  <c:v>61967.3003618704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>132197.389175781</c:v>
+                  <c:v>62332.2337076708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>137614.091266309</c:v>
+                  <c:v>62704.3322196664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>141750.584752636</c:v>
+                  <c:v>62977.7552963051</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>147585.547279707</c:v>
+                  <c:v>63319.1306650499</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>150357.206427965</c:v>
+                  <c:v>63271.1593856097</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>152127.612393181</c:v>
+                  <c:v>63155.4464812385</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>152008.346034989</c:v>
+                  <c:v>63120.9419815413</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>149366.736524303</c:v>
+                  <c:v>63005.8218333448</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148779.676945858</c:v>
+                  <c:v>62852.7363452712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>145736.019874296</c:v>
+                  <c:v>62817.5513988794</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>146557.057550021</c:v>
+                  <c:v>62912.6128348859</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>149486.526503974</c:v>
+                  <c:v>63114.6837788312</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>154278.575403447</c:v>
+                  <c:v>63337.5019475564</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>159286.732324384</c:v>
+                  <c:v>63557.4392639846</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>164095.425991071</c:v>
+                  <c:v>63571.2781352353</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>166597.115662041</c:v>
+                  <c:v>63544.7212424891</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>167018.176796206</c:v>
+                  <c:v>63334.8547354411</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>166050.961172986</c:v>
+                  <c:v>63106.4092648058</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>165872.865713543</c:v>
+                  <c:v>62888.2345647783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>164494.205198505</c:v>
+                  <c:v>62573.0987474483</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>167044.020885087</c:v>
+                  <c:v>62524.8450818738</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>173109.31219874</c:v>
+                  <c:v>62510.1686740061</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>177960.020906081</c:v>
+                  <c:v>62477.1045166161</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>182587.494159303</c:v>
+                  <c:v>62504.7215781808</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>182311.525551774</c:v>
+                  <c:v>62301.1923155339</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>183022.858166784</c:v>
+                  <c:v>62160.7744109907</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>180445.960588822</c:v>
+                  <c:v>61868.0283624023</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>179279.708506164</c:v>
+                  <c:v>61600.6304892526</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>176864.908354147</c:v>
+                  <c:v>61296.5777191737</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>177658.752821864</c:v>
+                  <c:v>61092.1099709905</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>182469.930415751</c:v>
+                  <c:v>60942.090971193</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>189536.753659713</c:v>
+                  <c:v>60803.9477451118</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>192996.416060761</c:v>
+                  <c:v>60565.4999784159</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>199375.714820251</c:v>
+                  <c:v>60297.0952791475</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>200745.848626353</c:v>
+                  <c:v>59942.2955969613</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>199616.609910068</c:v>
+                  <c:v>59603.7577680843</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>198617.093171378</c:v>
+                  <c:v>59270.5907169107</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>199906.281368433</c:v>
+                  <c:v>59025.2707607275</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>202935.384744114</c:v>
+                  <c:v>58777.6862122905</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>205580.887872577</c:v>
+                  <c:v>58517.8096513794</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>204772.192326389</c:v>
+                  <c:v>58253.6777443124</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>204716.689753214</c:v>
+                  <c:v>57982.9694675379</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>200893.268959144</c:v>
+                  <c:v>57686.9634972038</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>198319.042080425</c:v>
+                  <c:v>57429.5376211653</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>195043.014511588</c:v>
+                  <c:v>57177.7000927701</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>197155.994954272</c:v>
+                  <c:v>56944.4422834868</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>197465.565514372</c:v>
+                  <c:v>56741.858126881</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>199761.679231998</c:v>
+                  <c:v>56538.0018964563</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>200058.012613158</c:v>
+                  <c:v>56324.0196223355</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>199861.293152911</c:v>
+                  <c:v>56153.5712038812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7072,11 +8373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130552232"/>
-        <c:axId val="2130555032"/>
+        <c:axId val="2135350664"/>
+        <c:axId val="2135353640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130552232"/>
+        <c:axId val="2135350664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7085,7 +8386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130555032"/>
+        <c:crossAx val="2135353640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7093,7 +8394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130555032"/>
+        <c:axId val="2135353640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7104,7 +8405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130552232"/>
+        <c:crossAx val="2135350664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7151,11 +8452,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$E$1</c:f>
+              <c:f>NoPeaks!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR02realMean_c0</c:v>
+                  <c:v>VAR01realMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7165,198 +8466,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$E$2:$E$64</c:f>
+              <c:f>NoPeaks!$C$2:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>-4580.10883621711</c:v>
+                  <c:v>76836.3954505686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4605.08178135606</c:v>
+                  <c:v>75775.34246575341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5031.77923651837</c:v>
+                  <c:v>92232.5581395348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4176.7619468277</c:v>
+                  <c:v>100478.220574606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3892.80620577734</c:v>
+                  <c:v>107495.568090249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4535.38997116111</c:v>
+                  <c:v>114851.205320033</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4559.19524454966</c:v>
+                  <c:v>121279.050042408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4854.46670334487</c:v>
+                  <c:v>127614.747930775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4603.22689397748</c:v>
+                  <c:v>127784.081954294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4477.43632361993</c:v>
+                  <c:v>126753.395282344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5065.48697040299</c:v>
+                  <c:v>148866.817155756</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4439.57469658306</c:v>
+                  <c:v>156911.834789515</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5389.24811065105</c:v>
+                  <c:v>153483.003952569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4118.85500658741</c:v>
+                  <c:v>151897.698209718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4147.87030893007</c:v>
+                  <c:v>150157.933579335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4996.44241280152</c:v>
+                  <c:v>149515.717926932</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3927.47036401355</c:v>
+                  <c:v>156445.27595884</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3961.02956151591</c:v>
+                  <c:v>161383.038210624</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3866.42004942993</c:v>
+                  <c:v>166389.057750759</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4349.62736676345</c:v>
+                  <c:v>165316.944688323</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4346.66132799134</c:v>
+                  <c:v>143534.88372093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4180.94268343754</c:v>
+                  <c:v>177492.289442467</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5162.01049712012</c:v>
+                  <c:v>136664.242424242</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3964.85219438804</c:v>
+                  <c:v>153719.528178243</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3900.47802581949</c:v>
+                  <c:v>153301.301301301</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3938.43597366567</c:v>
+                  <c:v>184232.118758434</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-3639.52491776813</c:v>
+                  <c:v>183360.912981455</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3472.74381140046</c:v>
+                  <c:v>205210.59602649</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3747.88152130135</c:v>
+                  <c:v>199906.911142454</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4007.69513310305</c:v>
+                  <c:v>195657.711442786</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4122.00474196067</c:v>
+                  <c:v>206036.465638148</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4158.07641012579</c:v>
+                  <c:v>217148.197596795</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4447.76503444875</c:v>
+                  <c:v>200007.237635705</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3751.47940090677</c:v>
+                  <c:v>183477.017364657</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3662.90955211132</c:v>
+                  <c:v>208012.163336229</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3536.09531385814</c:v>
+                  <c:v>202604.982206405</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-3400.60000892098</c:v>
+                  <c:v>192273.062730627</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3929.3723977995</c:v>
+                  <c:v>185055.387713998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3537.93916941258</c:v>
+                  <c:v>178014.721345951</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3996.90960920882</c:v>
+                  <c:v>171584.137191854</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3931.15735282266</c:v>
+                  <c:v>182572.05720572</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-4432.1786959094</c:v>
+                  <c:v>179030.362389813</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3935.35884143526</c:v>
+                  <c:v>193648.351648351</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3779.48790850117</c:v>
+                  <c:v>206713.615023474</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3549.10968203388</c:v>
+                  <c:v>238650.865998176</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3680.8871801366</c:v>
+                  <c:v>216406.719717064</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3418.7265717146</c:v>
+                  <c:v>397377.506538796</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3679.05118433887</c:v>
+                  <c:v>402586.858685868</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-4103.14052802371</c:v>
+                  <c:v>405994.60916442</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-4378.49695907207</c:v>
+                  <c:v>337112.892451569</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3843.81829400297</c:v>
+                  <c:v>393787.124463519</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3765.06280895672</c:v>
+                  <c:v>166755.905511811</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3670.52092072661</c:v>
+                  <c:v>181300.261096605</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3978.7817805704</c:v>
+                  <c:v>172142.514011208</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3588.9477633955</c:v>
+                  <c:v>166956.52173913</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4275.57988871334</c:v>
+                  <c:v>172375.516956162</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4080.02681649489</c:v>
+                  <c:v>160888.521882741</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4764.46491182107</c:v>
+                  <c:v>181164.797238999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3635.0908812076</c:v>
+                  <c:v>193803.622497616</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-4165.33635594773</c:v>
+                  <c:v>195689.497716894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3623.44917357875</c:v>
+                  <c:v>211573.515092502</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3928.50123495036</c:v>
+                  <c:v>202765.665236051</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3566.91014517431</c:v>
+                  <c:v>207521.695257315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7368,11 +8669,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$F$1</c:f>
+              <c:f>NoPeaks!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR02learntMean_c0</c:v>
+                  <c:v>VAR01learntMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7382,198 +8683,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$F$2:$F$64</c:f>
+              <c:f>NoPeaks!$D$2:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>-4578.03519231552</c:v>
+                  <c:v>76898.5459072041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4597.79368355877</c:v>
+                  <c:v>76207.6598907858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4811.86637028341</c:v>
+                  <c:v>82345.8244425383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4556.99370348108</c:v>
+                  <c:v>87421.4507268151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4289.80346222826</c:v>
+                  <c:v>93696.49668489231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4364.79265764764</c:v>
+                  <c:v>99124.3204776486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4404.80829825668</c:v>
+                  <c:v>104393.149831109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4510.16082145125</c:v>
+                  <c:v>108974.418255737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4528.7807779732</c:v>
+                  <c:v>112324.008218856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4518.1150436831</c:v>
+                  <c:v>114691.700699101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4619.41384451201</c:v>
+                  <c:v>119556.150556708</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4583.98572959786</c:v>
+                  <c:v>124161.742589027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4724.33633189206</c:v>
+                  <c:v>127878.991631805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4616.57741270565</c:v>
+                  <c:v>132197.389175781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4520.90944019162</c:v>
+                  <c:v>137614.091266309</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4598.9132969747</c:v>
+                  <c:v>141750.584752636</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4462.13060105903</c:v>
+                  <c:v>147585.547279707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4362.80339566088</c:v>
+                  <c:v>150357.206427965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4272.79489430505</c:v>
+                  <c:v>152127.612393181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4290.58679215469</c:v>
+                  <c:v>152008.346034989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4309.87614135256</c:v>
+                  <c:v>149366.736524303</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4302.60150898214</c:v>
+                  <c:v>148779.676945858</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-4395.55340788883</c:v>
+                  <c:v>145736.019874296</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4354.736091125</c:v>
+                  <c:v>146557.057550021</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-4298.82261727829</c:v>
+                  <c:v>149486.526503974</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4244.89623014675</c:v>
+                  <c:v>154278.575403447</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4161.80525615307</c:v>
+                  <c:v>159286.732324384</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-4072.29864100676</c:v>
+                  <c:v>164095.425991071</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4032.49334157037</c:v>
+                  <c:v>166597.115662041</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4038.43765270257</c:v>
+                  <c:v>167018.176796206</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4062.27192984485</c:v>
+                  <c:v>166050.961172986</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4083.521253018</c:v>
+                  <c:v>165872.865713543</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4128.85115359965</c:v>
+                  <c:v>164494.205198505</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4088.34649478975</c:v>
+                  <c:v>167044.020885087</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4027.1329506169</c:v>
+                  <c:v>173109.31219874</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3961.28858607259</c:v>
+                  <c:v>177960.020906081</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-3883.90853581102</c:v>
+                  <c:v>182587.494159303</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3890.72168435595</c:v>
+                  <c:v>182311.525551774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-3854.67478243549</c:v>
+                  <c:v>183022.858166784</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3881.64187199893</c:v>
+                  <c:v>180445.960588822</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3894.62366031486</c:v>
+                  <c:v>179279.708506164</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3950.49124363251</c:v>
+                  <c:v>176864.908354147</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3948.35881157841</c:v>
+                  <c:v>177658.752821864</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3910.79085409052</c:v>
+                  <c:v>182469.930415751</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3851.56367179972</c:v>
+                  <c:v>189536.753659713</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-3822.87739918668</c:v>
+                  <c:v>192996.416060761</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3771.36074648415</c:v>
+                  <c:v>199375.714820251</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3768.93074168655</c:v>
+                  <c:v>200745.848626353</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-3809.84349327422</c:v>
+                  <c:v>199616.609910068</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3861.23618174127</c:v>
+                  <c:v>198617.093171378</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3857.71578580964</c:v>
+                  <c:v>199906.281368433</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3831.52758977198</c:v>
+                  <c:v>202935.384744114</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3803.53119297096</c:v>
+                  <c:v>205580.887872577</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3818.63848301008</c:v>
+                  <c:v>204772.192326389</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3803.65305478998</c:v>
+                  <c:v>204716.689753214</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3854.37461362893</c:v>
+                  <c:v>200893.268959144</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3881.6806140873</c:v>
+                  <c:v>198319.042080425</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3946.57317872906</c:v>
+                  <c:v>195043.014511588</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3918.2854582701</c:v>
+                  <c:v>197155.994954272</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3928.38198994475</c:v>
+                  <c:v>197465.565514372</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3900.04097309438</c:v>
+                  <c:v>199761.679231998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3899.70794817339</c:v>
+                  <c:v>200058.012613158</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3885.89012040049</c:v>
+                  <c:v>199861.293152911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7590,11 +8891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116570696"/>
-        <c:axId val="2126029864"/>
+        <c:axId val="2135380888"/>
+        <c:axId val="2135383864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116570696"/>
+        <c:axId val="2135380888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7603,7 +8904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126029864"/>
+        <c:crossAx val="2135383864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7611,7 +8912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126029864"/>
+        <c:axId val="2135383864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7622,7 +8923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116570696"/>
+        <c:crossAx val="2135380888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7669,11 +8970,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$G$1</c:f>
+              <c:f>NoPeaks!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR02realMean_c1</c:v>
+                  <c:v>VAR02realMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7683,198 +8984,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$G$2:$G$64</c:f>
+              <c:f>NoPeaks!$E$2:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>-2523.76376202974</c:v>
+                  <c:v>-4580.10883621711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2879.42465753424</c:v>
+                  <c:v>-4605.08178135606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3333.60856158484</c:v>
+                  <c:v>-5031.77923651837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2616.85966635773</c:v>
+                  <c:v>-4176.7619468277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2464.73674456083</c:v>
+                  <c:v>-3892.80620577734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3570.6234413965</c:v>
+                  <c:v>-4535.38997116111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2592.34953350296</c:v>
+                  <c:v>-4559.19524454966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3476.36124905944</c:v>
+                  <c:v>-4854.46670334487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2715.57626477541</c:v>
+                  <c:v>-4603.22689397748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3018.50969263759</c:v>
+                  <c:v>-4477.43632361993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3076.64651617757</c:v>
+                  <c:v>-5065.48697040299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2859.53328038125</c:v>
+                  <c:v>-4439.57469658306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2747.01732806324</c:v>
+                  <c:v>-5389.24811065105</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1858.90808184143</c:v>
+                  <c:v>-4118.85500658741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1824.74429520295</c:v>
+                  <c:v>-4147.87030893007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1963.91588785046</c:v>
+                  <c:v>-4996.44241280152</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2606.0395696913</c:v>
+                  <c:v>-3927.47036401355</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1549.71006523765</c:v>
+                  <c:v>-3961.02956151591</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1895.86682877406</c:v>
+                  <c:v>-3866.42004942993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1357.13257243195</c:v>
+                  <c:v>-4349.62736676345</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2862.50396456257</c:v>
+                  <c:v>-4346.66132799134</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2436.47959667852</c:v>
+                  <c:v>-4180.94268343754</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1714.23791515151</c:v>
+                  <c:v>-5162.01049712012</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1326.23800786369</c:v>
+                  <c:v>-3964.85219438804</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1328.67997997997</c:v>
+                  <c:v>-3900.47802581949</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1995.55875843454</c:v>
+                  <c:v>-3938.43597366567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1776.83654778887</c:v>
+                  <c:v>-3639.52491776813</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2068.5458807947</c:v>
+                  <c:v>-3472.74381140046</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2267.61339915373</c:v>
+                  <c:v>-3747.88152130135</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1377.3271243781</c:v>
+                  <c:v>-4007.69513310305</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1761.91309957924</c:v>
+                  <c:v>-4122.00474196067</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1971.26130841121</c:v>
+                  <c:v>-4158.07641012579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2083.75799758745</c:v>
+                  <c:v>-4447.76503444875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1194.3180183861</c:v>
+                  <c:v>-3751.47940090677</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1331.46769765421</c:v>
+                  <c:v>-3662.90955211132</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1967.43983392645</c:v>
+                  <c:v>-3536.09531385814</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1764.60634686346</c:v>
+                  <c:v>-3400.60000892098</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1279.59931520644</c:v>
+                  <c:v>-3929.3723977995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1961.51514195583</c:v>
+                  <c:v>-3537.93916941258</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1310.04257234726</c:v>
+                  <c:v>-3996.90960920882</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1734.3702750275</c:v>
+                  <c:v>-3931.15735282266</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1478.1041136141</c:v>
+                  <c:v>-4432.1786959094</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3690.51586413586</c:v>
+                  <c:v>-3935.35884143526</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1748.95235680751</c:v>
+                  <c:v>-3779.48790850117</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1966.66034639927</c:v>
+                  <c:v>-3549.10968203388</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1884.77204244031</c:v>
+                  <c:v>-3680.8871801366</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1616.43419354838</c:v>
+                  <c:v>-3418.7265717146</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1748.19769576957</c:v>
+                  <c:v>-3679.05118433887</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2025.82925426774</c:v>
+                  <c:v>-4103.14052802371</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1287.73410821643</c:v>
+                  <c:v>-4378.49695907207</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2113.05088412017</c:v>
+                  <c:v>-3843.81829400297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1550.99594050743</c:v>
+                  <c:v>-3765.06280895672</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1321.52464751958</c:v>
+                  <c:v>-3670.52092072661</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1889.0679743795</c:v>
+                  <c:v>-3978.7817805704</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1956.41306052855</c:v>
+                  <c:v>-3588.9477633955</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3864.88335814723</c:v>
+                  <c:v>-4275.57988871334</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1822.07157720892</c:v>
+                  <c:v>-4080.02681649489</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1662.76205349439</c:v>
+                  <c:v>-4764.46491182107</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3260.84356530028</c:v>
+                  <c:v>-3635.0908812076</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2133.14547945205</c:v>
+                  <c:v>-4165.33635594773</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1889.30796494644</c:v>
+                  <c:v>-3623.44917357875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1409.72635193133</c:v>
+                  <c:v>-3928.50123495036</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1733.83334006054</c:v>
+                  <c:v>-3566.91014517431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7886,11 +9187,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$H$1</c:f>
+              <c:f>NoPeaks!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR02learntMean_c1</c:v>
+                  <c:v>VAR02learntMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7900,198 +9201,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$H$2:$H$64</c:f>
+              <c:f>NoPeaks!$F$2:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>-2523.01160306411</c:v>
+                  <c:v>-4578.03519231552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2748.2240502173</c:v>
+                  <c:v>-4597.79368355877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3001.81334776955</c:v>
+                  <c:v>-4811.86637028341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2866.29614697988</c:v>
+                  <c:v>-4556.99370348108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2717.93250973428</c:v>
+                  <c:v>-4289.80346222826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2910.05100593614</c:v>
+                  <c:v>-4364.79265764764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2843.45136727936</c:v>
+                  <c:v>-4404.80829825668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2981.77678269283</c:v>
+                  <c:v>-4510.16082145125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2931.76917858369</c:v>
+                  <c:v>-4528.7807779732</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2948.96530809526</c:v>
+                  <c:v>-4518.1150436831</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2974.21284941979</c:v>
+                  <c:v>-4619.41384451201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2961.30132574667</c:v>
+                  <c:v>-4583.98572959786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2932.7914013717</c:v>
+                  <c:v>-4724.33633189206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2773.43922272979</c:v>
+                  <c:v>-4616.57741270565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2592.6021737849</c:v>
+                  <c:v>-4520.90944019162</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2475.15137292063</c:v>
+                  <c:v>-4598.9132969747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2480.41067959315</c:v>
+                  <c:v>-4462.13060105903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2319.62992745936</c:v>
+                  <c:v>-4362.80339566088</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2253.88937101212</c:v>
+                  <c:v>-4272.79489430505</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2121.48710235801</c:v>
+                  <c:v>-4290.58679215469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2218.84619111591</c:v>
+                  <c:v>-4309.87614135256</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2251.35115337941</c:v>
+                  <c:v>-4302.60150898214</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2224.02762974713</c:v>
+                  <c:v>-4395.55340788883</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2151.84413523057</c:v>
+                  <c:v>-4354.736091125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2047.84765868006</c:v>
+                  <c:v>-4298.82261727829</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2013.52592871741</c:v>
+                  <c:v>-4244.89623014675</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1961.13432648041</c:v>
+                  <c:v>-4161.80525615307</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1946.81456965963</c:v>
+                  <c:v>-4072.29864100676</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1964.37663047153</c:v>
+                  <c:v>-4032.49334157037</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1912.24602973517</c:v>
+                  <c:v>-4038.43765270257</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1922.44545759616</c:v>
+                  <c:v>-4062.27192984485</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1942.88189626541</c:v>
+                  <c:v>-4083.521253018</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1974.61079847552</c:v>
+                  <c:v>-4128.85115359965</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1895.43332900287</c:v>
+                  <c:v>-4088.34649478975</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1804.83591294863</c:v>
+                  <c:v>-4027.1329506169</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1784.56832865714</c:v>
+                  <c:v>-3961.28858607259</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1747.83991253171</c:v>
+                  <c:v>-3883.90853581102</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1709.15372304393</c:v>
+                  <c:v>-3890.72168435595</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1722.30630352201</c:v>
+                  <c:v>-3854.67478243549</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1709.51809174442</c:v>
+                  <c:v>-3881.64187199893</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1722.96518844835</c:v>
+                  <c:v>-3894.62366031486</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1726.65164260217</c:v>
+                  <c:v>-3950.49124363251</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1838.04792235678</c:v>
+                  <c:v>-3948.35881157841</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1801.99426933875</c:v>
+                  <c:v>-3910.79085409052</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1775.12540153665</c:v>
+                  <c:v>-3851.56367179972</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1765.09100196808</c:v>
+                  <c:v>-3822.87739918668</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1731.82287408028</c:v>
+                  <c:v>-3771.36074648415</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1737.95152602721</c:v>
+                  <c:v>-3768.93074168655</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1775.65161639233</c:v>
+                  <c:v>-3809.84349327422</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1749.94113763954</c:v>
+                  <c:v>-3861.23618174127</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1769.7377864371</c:v>
+                  <c:v>-3857.71578580964</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1733.06414903142</c:v>
+                  <c:v>-3831.52758977198</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1686.71429167035</c:v>
+                  <c:v>-3803.53119297096</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1704.84736546094</c:v>
+                  <c:v>-3818.63848301008</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1719.13985568587</c:v>
+                  <c:v>-3803.65305478998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1859.8539235534</c:v>
+                  <c:v>-3854.37461362893</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1874.01853756221</c:v>
+                  <c:v>-3881.6806140873</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1886.19022833926</c:v>
+                  <c:v>-3946.57317872906</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1927.09279663101</c:v>
+                  <c:v>-3918.2854582701</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1933.60873669454</c:v>
+                  <c:v>-3928.38198994475</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1917.3898754696</c:v>
+                  <c:v>-3900.04097309438</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1893.16879345164</c:v>
+                  <c:v>-3899.70794817339</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1888.87345290694</c:v>
+                  <c:v>-3885.89012040049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8108,11 +9409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082294792"/>
-        <c:axId val="2125993176"/>
+        <c:axId val="2135410840"/>
+        <c:axId val="2135413816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082294792"/>
+        <c:axId val="2135410840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8121,7 +9422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125993176"/>
+        <c:crossAx val="2135413816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8129,7 +9430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125993176"/>
+        <c:axId val="2135413816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8140,7 +9441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082294792"/>
+        <c:crossAx val="2135410840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8187,11 +9488,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$I$1</c:f>
+              <c:f>NoPeaks!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR03realMean_c0</c:v>
+                  <c:v>VAR02realMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8201,198 +9502,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$I$2:$I$64</c:f>
+              <c:f>NoPeaks!$G$2:$G$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>4646.97672529035</c:v>
+                  <c:v>-2523.76376202974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4750.55615912858</c:v>
+                  <c:v>-2879.42465753424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4696.40060533849</c:v>
+                  <c:v>-3333.60856158484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3862.05770276841</c:v>
+                  <c:v>-2616.85966635773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3579.71548384105</c:v>
+                  <c:v>-2464.73674456083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4148.70384467097</c:v>
+                  <c:v>-3570.6234413965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4342.38769004626</c:v>
+                  <c:v>-2592.34953350296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4868.01323226674</c:v>
+                  <c:v>-3476.36124905944</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4696.49396712219</c:v>
+                  <c:v>-2715.57626477541</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4674.92348991877</c:v>
+                  <c:v>-3018.50969263759</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4866.86238760202</c:v>
+                  <c:v>-3076.64651617757</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4467.73211372661</c:v>
+                  <c:v>-2859.53328038125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5309.34414140065</c:v>
+                  <c:v>-2747.01732806324</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3837.57893813886</c:v>
+                  <c:v>-1858.90808184143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3765.84638751833</c:v>
+                  <c:v>-1824.74429520295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4668.52996409255</c:v>
+                  <c:v>-1963.91588785046</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3673.85414026237</c:v>
+                  <c:v>-2606.0395696913</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4014.54680364691</c:v>
+                  <c:v>-1549.71006523765</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4054.61950981978</c:v>
+                  <c:v>-1895.86682877406</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4617.2864054667</c:v>
+                  <c:v>-1357.13257243195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4608.71467311994</c:v>
+                  <c:v>-2862.50396456257</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4371.45431918352</c:v>
+                  <c:v>-2436.47959667852</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5253.79762025825</c:v>
+                  <c:v>-1714.23791515151</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3783.53364835454</c:v>
+                  <c:v>-1326.23800786369</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3653.93634143216</c:v>
+                  <c:v>-1328.67997997997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3667.53858036137</c:v>
+                  <c:v>-1995.55875843454</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3480.91805093907</c:v>
+                  <c:v>-1776.83654778887</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3454.18135240498</c:v>
+                  <c:v>-2068.5458807947</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3876.00685071194</c:v>
+                  <c:v>-2267.61339915373</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4445.79292049884</c:v>
+                  <c:v>-1377.3271243781</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4450.21220330801</c:v>
+                  <c:v>-1761.91309957924</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4319.50241881394</c:v>
+                  <c:v>-1971.26130841121</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4420.34141091933</c:v>
+                  <c:v>-2083.75799758745</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3434.78434132031</c:v>
+                  <c:v>-1194.3180183861</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3250.44520630984</c:v>
+                  <c:v>-1331.46769765421</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3239.46888029367</c:v>
+                  <c:v>-1967.43983392645</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3203.01353256854</c:v>
+                  <c:v>-1764.60634686346</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4071.7632285017</c:v>
+                  <c:v>-1279.59931520644</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3561.69143941605</c:v>
+                  <c:v>-1961.51514195583</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4192.63788658575</c:v>
+                  <c:v>-1310.04257234726</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4026.34568451181</c:v>
+                  <c:v>-1734.3702750275</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4377.08356966936</c:v>
+                  <c:v>-1478.1041136141</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3633.20446862978</c:v>
+                  <c:v>-3690.51586413586</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3537.38232582176</c:v>
+                  <c:v>-1748.95235680751</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3335.63306163756</c:v>
+                  <c:v>-1966.66034639927</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3737.89779972247</c:v>
+                  <c:v>-1884.77204244031</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3651.50578789294</c:v>
+                  <c:v>-1616.43419354838</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3924.01466559764</c:v>
+                  <c:v>-1748.19769576957</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4254.61998504333</c:v>
+                  <c:v>-2025.82925426774</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4225.9878392013</c:v>
+                  <c:v>-1287.73410821643</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3673.15454337246</c:v>
+                  <c:v>-2113.05088412017</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3422.70029194899</c:v>
+                  <c:v>-1550.99594050743</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3553.18040683905</c:v>
+                  <c:v>-1321.52464751958</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4091.69795639697</c:v>
+                  <c:v>-1889.0679743795</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3882.41122313662</c:v>
+                  <c:v>-1956.41306052855</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4387.93735439994</c:v>
+                  <c:v>-3864.88335814723</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4439.1459197329</c:v>
+                  <c:v>-1822.07157720892</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4557.339270852</c:v>
+                  <c:v>-1662.76205349439</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3318.27312507965</c:v>
+                  <c:v>-3260.84356530028</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3844.42010092609</c:v>
+                  <c:v>-2133.14547945205</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3412.788203915</c:v>
+                  <c:v>-1889.30796494644</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4000.04681546151</c:v>
+                  <c:v>-1409.72635193133</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3846.84141269724</c:v>
+                  <c:v>-1733.83334006054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8404,11 +9705,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$J$1</c:f>
+              <c:f>NoPeaks!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR03learntMean_c0</c:v>
+                  <c:v>VAR02learntMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8418,198 +9719,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$J$2:$J$64</c:f>
+              <c:f>NoPeaks!$H$2:$H$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>4646.86813967165</c:v>
+                  <c:v>-2523.01160306411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4717.00200162535</c:v>
+                  <c:v>-2748.2240502173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4706.0692288981</c:v>
+                  <c:v>-3001.81334776955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4356.7463054893</c:v>
+                  <c:v>-2866.29614697988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4032.49153709203</c:v>
+                  <c:v>-2717.93250973428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4060.90187299793</c:v>
+                  <c:v>-2910.05100593614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4113.91383743573</c:v>
+                  <c:v>-2843.45136727936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4287.79956046734</c:v>
+                  <c:v>-2981.77678269283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4373.20504848889</c:v>
+                  <c:v>-2931.76917858369</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4433.51562216996</c:v>
+                  <c:v>-2948.96530809526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4513.280984057</c:v>
+                  <c:v>-2974.21284941979</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4502.0024023046</c:v>
+                  <c:v>-2961.30132574667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4643.15360240521</c:v>
+                  <c:v>-2932.7914013717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4497.70005773552</c:v>
+                  <c:v>-2773.43922272979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4347.34292209353</c:v>
+                  <c:v>-2592.6021737849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4392.25309228734</c:v>
+                  <c:v>-2475.15137292063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4236.1140341898</c:v>
+                  <c:v>-2480.41067959315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4185.34638994145</c:v>
+                  <c:v>-2319.62992745936</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4158.30897581363</c:v>
+                  <c:v>-2253.88937101212</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4238.43203402749</c:v>
+                  <c:v>-2121.48710235801</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4301.87364100183</c:v>
+                  <c:v>-2218.84619111591</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4318.90072925682</c:v>
+                  <c:v>-2251.35115337941</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4414.13186955801</c:v>
+                  <c:v>-2224.02762974713</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4357.41990112167</c:v>
+                  <c:v>-2151.84413523057</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4281.32174703374</c:v>
+                  <c:v>-2047.84765868006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4205.17751891932</c:v>
+                  <c:v>-2013.52592871741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4111.98999023792</c:v>
+                  <c:v>-1961.13432648041</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4027.10643458367</c:v>
+                  <c:v>-1946.81456965963</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4005.33442835302</c:v>
+                  <c:v>-1964.37663047153</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4056.33670719117</c:v>
+                  <c:v>-1912.24602973517</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4105.31487999452</c:v>
+                  <c:v>-1922.44545759616</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4134.20937017828</c:v>
+                  <c:v>-1942.88189626541</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4170.44437191352</c:v>
+                  <c:v>-1974.61079847552</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4104.43359555478</c:v>
+                  <c:v>-1895.43332900287</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4011.27491872341</c:v>
+                  <c:v>-1804.83591294863</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3923.8082905908</c:v>
+                  <c:v>-1784.56832865714</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3833.64581264267</c:v>
+                  <c:v>-1747.83991253171</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3856.81432886144</c:v>
+                  <c:v>-1709.15372304393</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3826.02746870564</c:v>
+                  <c:v>-1722.30630352201</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3869.81079751502</c:v>
+                  <c:v>-1709.51809174442</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3890.20664391026</c:v>
+                  <c:v>-1722.96518844835</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3941.11938041579</c:v>
+                  <c:v>-1726.65164260217</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3919.31048384632</c:v>
+                  <c:v>-1838.04792235678</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3867.59063658179</c:v>
+                  <c:v>-1801.99426933875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3796.53159171159</c:v>
+                  <c:v>-1775.12540153665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3776.51722818068</c:v>
+                  <c:v>-1765.09100196808</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3747.06291218421</c:v>
+                  <c:v>-1731.82287408028</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3764.54244371473</c:v>
+                  <c:v>-1737.95152602721</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3815.27293215185</c:v>
+                  <c:v>-1775.65161639233</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3855.05028468456</c:v>
+                  <c:v>-1749.94113763954</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3841.23737639752</c:v>
+                  <c:v>-1769.7377864371</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3794.88525484721</c:v>
+                  <c:v>-1733.06414903142</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3762.16962440482</c:v>
+                  <c:v>-1686.71429167035</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3786.93451062329</c:v>
+                  <c:v>-1704.84736546094</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3791.85580191659</c:v>
+                  <c:v>-1719.13985568587</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3848.38999989603</c:v>
+                  <c:v>-1859.8539235534</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3894.42181975705</c:v>
+                  <c:v>-1874.01853756221</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3946.56481181955</c:v>
+                  <c:v>-1886.19022833926</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3903.47362954425</c:v>
+                  <c:v>-1927.09279663101</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3898.74549014669</c:v>
+                  <c:v>-1933.60873669454</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3862.13750784629</c:v>
+                  <c:v>-1917.3898754696</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3867.21821749774</c:v>
+                  <c:v>-1893.16879345164</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3867.68331680304</c:v>
+                  <c:v>-1888.87345290694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8626,11 +9927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121305704"/>
-        <c:axId val="2121308792"/>
+        <c:axId val="2134824440"/>
+        <c:axId val="2134827384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121305704"/>
+        <c:axId val="2134824440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8639,7 +9940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121308792"/>
+        <c:crossAx val="2134827384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8647,7 +9948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121308792"/>
+        <c:axId val="2134827384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8658,7 +9959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121305704"/>
+        <c:crossAx val="2134824440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8705,11 +10006,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$K$1</c:f>
+              <c:f>NoPeaks!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR03realMean_c1</c:v>
+                  <c:v>VAR03realMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8719,198 +10020,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$K$2:$K$64</c:f>
+              <c:f>NoPeaks!$I$2:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>2687.33116360454</c:v>
+                  <c:v>4646.97672529035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2785.78357990867</c:v>
+                  <c:v>4750.55615912858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3206.56366925064</c:v>
+                  <c:v>4696.40060533849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2586.27983317886</c:v>
+                  <c:v>3862.05770276841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3227.90061240934</c:v>
+                  <c:v>3579.71548384105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2566.61122194513</c:v>
+                  <c:v>4148.70384467097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2284.38045801526</c:v>
+                  <c:v>4342.38769004626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3453.16484574868</c:v>
+                  <c:v>4868.01323226674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2872.85757289204</c:v>
+                  <c:v>4696.49396712219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2840.57854181558</c:v>
+                  <c:v>4674.92348991877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2925.74314522197</c:v>
+                  <c:v>4866.86238760202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2765.19934868943</c:v>
+                  <c:v>4467.73211372661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2667.70926482213</c:v>
+                  <c:v>5309.34414140065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1787.88682011935</c:v>
+                  <c:v>3837.57893813886</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1727.23059778597</c:v>
+                  <c:v>3765.84638751833</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1897.19126593033</c:v>
+                  <c:v>4668.52996409255</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2478.52806361085</c:v>
+                  <c:v>3673.85414026237</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1541.51084808946</c:v>
+                  <c:v>4014.54680364691</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1853.34745694022</c:v>
+                  <c:v>4054.61950981978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1501.12431957857</c:v>
+                  <c:v>4617.2864054667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2774.84859357696</c:v>
+                  <c:v>4608.71467311994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2562.09928825622</c:v>
+                  <c:v>4371.45431918352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1620.27636363636</c:v>
+                  <c:v>5253.79762025825</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1209.19585845347</c:v>
+                  <c:v>3783.53364835454</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1389.60142142142</c:v>
+                  <c:v>3653.93634143216</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1936.91390013495</c:v>
+                  <c:v>3667.53858036137</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1737.89475035663</c:v>
+                  <c:v>3480.91805093907</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1900.89849006622</c:v>
+                  <c:v>3454.18135240498</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2249.72990126939</c:v>
+                  <c:v>3876.00685071194</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1341.24210945273</c:v>
+                  <c:v>4445.79292049884</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1855.79208976157</c:v>
+                  <c:v>4450.21220330801</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1760.40691588785</c:v>
+                  <c:v>4319.50241881394</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2325.34123039807</c:v>
+                  <c:v>4420.34141091933</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>987.42784473953</c:v>
+                  <c:v>3434.78434132031</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1277.52688097306</c:v>
+                  <c:v>3250.44520630984</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1885.22298932384</c:v>
+                  <c:v>3239.46888029367</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1903.98988929889</c:v>
+                  <c:v>3203.01353256854</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1265.33484390735</c:v>
+                  <c:v>4071.7632285017</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1900.52136698212</c:v>
+                  <c:v>3561.69143941605</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1486.03903536977</c:v>
+                  <c:v>4192.63788658575</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1654.92246424642</c:v>
+                  <c:v>4026.34568451181</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1482.26511263467</c:v>
+                  <c:v>4377.08356966936</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3748.01374625374</c:v>
+                  <c:v>3633.20446862978</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1735.06969014084</c:v>
+                  <c:v>3537.38232582176</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1877.6536189608</c:v>
+                  <c:v>3335.63306163756</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1877.22022988505</c:v>
+                  <c:v>3737.89779972247</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1605.07801220575</c:v>
+                  <c:v>3651.50578789294</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1750.06628262826</c:v>
+                  <c:v>3924.01466559764</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2026.56896675651</c:v>
+                  <c:v>4254.61998504333</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1336.44062792251</c:v>
+                  <c:v>4225.9878392013</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1913.31436909871</c:v>
+                  <c:v>3673.15454337246</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1500.47972003499</c:v>
+                  <c:v>3422.70029194899</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1331.30127067014</c:v>
+                  <c:v>3553.18040683905</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1834.46733386709</c:v>
+                  <c:v>4091.69795639697</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1945.89302642796</c:v>
+                  <c:v>3882.41122313662</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3820.98679900744</c:v>
+                  <c:v>4387.93735439994</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1832.5182328654</c:v>
+                  <c:v>4439.1459197329</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1610.12348576358</c:v>
+                  <c:v>4557.339270852</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3357.90997140133</c:v>
+                  <c:v>3318.27312507965</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2274.66252054794</c:v>
+                  <c:v>3844.42010092609</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1780.83446932813</c:v>
+                  <c:v>3412.788203915</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1362.19191416309</c:v>
+                  <c:v>4000.04681546151</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1754.29804238143</c:v>
+                  <c:v>3846.84141269724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8922,11 +10223,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$L$1</c:f>
+              <c:f>NoPeaks!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR03learntMean_c1</c:v>
+                  <c:v>VAR03learntMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8936,198 +10237,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$L$2:$L$64</c:f>
+              <c:f>NoPeaks!$J$2:$J$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>2686.08543360186</c:v>
+                  <c:v>4646.86813967165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2758.01608197932</c:v>
+                  <c:v>4717.00200162535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2964.86514354453</c:v>
+                  <c:v>4706.0692288981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2818.70904011745</c:v>
+                  <c:v>4356.7463054893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2913.14841571319</c:v>
+                  <c:v>4032.49153709203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2827.67852585052</c:v>
+                  <c:v>4060.90187299793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2687.12772700384</c:v>
+                  <c:v>4113.91383743573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2875.0265563501</c:v>
+                  <c:v>4287.79956046734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2874.71434722437</c:v>
+                  <c:v>4373.20504848889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2867.68977489151</c:v>
+                  <c:v>4433.51562216996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2878.3945130718</c:v>
+                  <c:v>4513.280984057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2857.55489530428</c:v>
+                  <c:v>4502.0024023046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2822.45322753508</c:v>
+                  <c:v>4643.15360240521</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2636.32151798036</c:v>
+                  <c:v>4497.70005773552</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2425.31143714572</c:v>
+                  <c:v>4347.34292209353</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2300.73749181126</c:v>
+                  <c:v>4392.25309228734</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2294.74958665812</c:v>
+                  <c:v>4236.1140341898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2145.26346660657</c:v>
+                  <c:v>4185.34638994145</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2092.51940268003</c:v>
+                  <c:v>4158.30897581363</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2004.86551980971</c:v>
+                  <c:v>4238.43203402749</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2119.52006367361</c:v>
+                  <c:v>4301.87364100183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2182.07515165618</c:v>
+                  <c:v>4318.90072925682</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2157.64132175661</c:v>
+                  <c:v>4414.13186955801</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2074.5548122749</c:v>
+                  <c:v>4357.41990112167</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1971.43575816965</c:v>
+                  <c:v>4281.32174703374</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1927.32738707907</c:v>
+                  <c:v>4205.17751891932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1865.72849665317</c:v>
+                  <c:v>4111.98999023792</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1836.86120968341</c:v>
+                  <c:v>4027.10643458367</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1860.80085650586</c:v>
+                  <c:v>4005.33442835302</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1816.05974073987</c:v>
+                  <c:v>4056.33670719117</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1846.53780494998</c:v>
+                  <c:v>4105.31487999452</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1862.59992539733</c:v>
+                  <c:v>4134.20937017828</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1925.73259713456</c:v>
+                  <c:v>4170.44437191352</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1824.98938698778</c:v>
+                  <c:v>4104.43359555478</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1723.34272264096</c:v>
+                  <c:v>4011.27491872341</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1694.40783183557</c:v>
+                  <c:v>3923.8082905908</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1666.1524097326</c:v>
+                  <c:v>3833.64581264267</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1632.8706546276</c:v>
+                  <c:v>3856.81432886144</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1646.3516826089</c:v>
+                  <c:v>3826.02746870564</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1657.22273231753</c:v>
+                  <c:v>3869.81079751502</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1671.37820814684</c:v>
+                  <c:v>3890.20664391026</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1683.79753747155</c:v>
+                  <c:v>3941.11938041579</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1808.59370231085</c:v>
+                  <c:v>3919.31048384632</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1765.94846266312</c:v>
+                  <c:v>3867.59063658179</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1726.86067896316</c:v>
+                  <c:v>3796.53159171159</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1716.01308487604</c:v>
+                  <c:v>3776.51722818068</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1679.63937936973</c:v>
+                  <c:v>3747.06291218421</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1690.90258905564</c:v>
+                  <c:v>3764.54244371473</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1737.32154902447</c:v>
+                  <c:v>3815.27293215185</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1720.41280192885</c:v>
+                  <c:v>3855.05028468456</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1729.69343469993</c:v>
+                  <c:v>3841.23737639752</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1686.17894579155</c:v>
+                  <c:v>3794.88525484721</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1637.57962923254</c:v>
+                  <c:v>3762.16962440482</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1657.05323906955</c:v>
+                  <c:v>3786.93451062329</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1674.25555850936</c:v>
+                  <c:v>3791.85580191659</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1827.87059783915</c:v>
+                  <c:v>3848.38999989603</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1848.18137294915</c:v>
+                  <c:v>3894.42181975705</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1863.86971828687</c:v>
+                  <c:v>3946.56481181955</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1909.54726840047</c:v>
+                  <c:v>3903.47362954425</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1922.9569237901</c:v>
+                  <c:v>3898.74549014669</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1898.96483357835</c:v>
+                  <c:v>3862.13750784629</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1871.71093555438</c:v>
+                  <c:v>3867.21821749774</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1869.13481456998</c:v>
+                  <c:v>3867.68331680304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9144,11 +10445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131185784"/>
-        <c:axId val="2131627400"/>
+        <c:axId val="2134854968"/>
+        <c:axId val="2134857944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131185784"/>
+        <c:axId val="2134854968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9157,7 +10458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131627400"/>
+        <c:crossAx val="2134857944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9165,7 +10466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131627400"/>
+        <c:axId val="2134857944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9176,7 +10477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131185784"/>
+        <c:crossAx val="2134854968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9223,11 +10524,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$M$1</c:f>
+              <c:f>NoPeaks!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04realMean_c0</c:v>
+                  <c:v>VAR03realMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9235,200 +10536,398 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$M$2:$M$64</c:f>
+              <c:f>NoPeaks!$K$2:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>7694.21171272814</c:v>
+                  <c:v>2687.33116360454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7828.55519804247</c:v>
+                  <c:v>2785.78357990867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7733.67179326886</c:v>
+                  <c:v>3206.56366925064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7446.26437989178</c:v>
+                  <c:v>2586.27983317886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7098.48968022133</c:v>
+                  <c:v>3227.90061240934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6749.95521058557</c:v>
+                  <c:v>2566.61122194513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6577.40987760912</c:v>
+                  <c:v>2284.38045801526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6808.08823173773</c:v>
+                  <c:v>3453.16484574868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6857.93660953426</c:v>
+                  <c:v>2872.85757289204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7002.7463913285</c:v>
+                  <c:v>2840.57854181558</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6839.51986471658</c:v>
+                  <c:v>2925.74314522197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6892.05427954521</c:v>
+                  <c:v>2765.19934868943</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6738.11065461615</c:v>
+                  <c:v>2667.70926482213</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6527.95270386916</c:v>
+                  <c:v>1787.88682011935</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6078.32396467676</c:v>
+                  <c:v>1727.23059778597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5824.8384385476</c:v>
+                  <c:v>1897.19126593033</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5560.37533513424</c:v>
+                  <c:v>2478.52806361085</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5903.9899468281</c:v>
+                  <c:v>1541.51084808946</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6058.25454505332</c:v>
+                  <c:v>1853.34745694022</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6261.28805328017</c:v>
+                  <c:v>1501.12431957857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6594.86620421412</c:v>
+                  <c:v>2774.84859357696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6768.60457411448</c:v>
+                  <c:v>2562.09928825622</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6954.24134154924</c:v>
+                  <c:v>1620.27636363636</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6833.91825740203</c:v>
+                  <c:v>1209.19585845347</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6498.03653842321</c:v>
+                  <c:v>1389.60142142142</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6225.57711357396</c:v>
+                  <c:v>1936.91390013495</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6093.47841071248</c:v>
+                  <c:v>1737.89475035663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6270.54961710211</c:v>
+                  <c:v>1900.89849006622</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6423.52863394221</c:v>
+                  <c:v>2249.72990126939</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6787.17335275431</c:v>
+                  <c:v>1341.24210945273</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7210.88754596436</c:v>
+                  <c:v>1855.79208976157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7312.91385547112</c:v>
+                  <c:v>1760.40691588785</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7513.98561803452</c:v>
+                  <c:v>2325.34123039807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7132.91941213626</c:v>
+                  <c:v>987.42784473953</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6663.56093104635</c:v>
+                  <c:v>1277.52688097306</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6475.39851390315</c:v>
+                  <c:v>1885.22298932384</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6236.59385651162</c:v>
+                  <c:v>1903.98988929889</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6694.36739455941</c:v>
+                  <c:v>1265.33484390735</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6740.92039735835</c:v>
+                  <c:v>1900.52136698212</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7196.10663719397</c:v>
+                  <c:v>1486.03903536977</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7301.6630473385</c:v>
+                  <c:v>1654.92246424642</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7405.44074767126</c:v>
+                  <c:v>1482.26511263467</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7162.11024270825</c:v>
+                  <c:v>3748.01374625374</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6464.89779929553</c:v>
+                  <c:v>1735.06969014084</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6351.9861344894</c:v>
+                  <c:v>1877.6536189608</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6585.46084308944</c:v>
+                  <c:v>1877.22022988505</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6706.87790375759</c:v>
+                  <c:v>1605.07801220575</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7334.54933734216</c:v>
+                  <c:v>1750.06628262826</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7531.8943808341</c:v>
+                  <c:v>2026.56896675651</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7476.59209485852</c:v>
+                  <c:v>1336.44062792251</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7462.57739260835</c:v>
+                  <c:v>1913.31436909871</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6661.53681191694</c:v>
+                  <c:v>1500.47972003499</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6586.99486057685</c:v>
+                  <c:v>1331.30127067014</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6945.7789788785</c:v>
+                  <c:v>1834.46733386709</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7273.13163668445</c:v>
+                  <c:v>1945.89302642796</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7881.22797444528</c:v>
+                  <c:v>3820.98679900744</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8266.1906118676</c:v>
+                  <c:v>1832.5182328654</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8457.401774609431</c:v>
+                  <c:v>1610.12348576358</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8181.63592319347</c:v>
+                  <c:v>3357.90997140133</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7607.60597662911</c:v>
+                  <c:v>2274.66252054794</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7540.37932172583</c:v>
+                  <c:v>1780.83446932813</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7843.41774695486</c:v>
+                  <c:v>1362.19191416309</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8402.556977908251</c:v>
+                  <c:v>1754.29804238143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9440,11 +10939,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NoPeaks!$N$1</c:f>
+              <c:f>NoPeaks!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04learntMean_c0</c:v>
+                  <c:v>VAR03learntMean_c1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9452,200 +10951,398 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NoPeaks!$N$2:$N$64</c:f>
+              <c:f>NoPeaks!$L$2:$L$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>7695.7140322161</c:v>
+                  <c:v>2686.08543360186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7784.89185575571</c:v>
+                  <c:v>2758.01608197932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7757.77546354365</c:v>
+                  <c:v>2964.86514354453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7629.62949795957</c:v>
+                  <c:v>2818.70904011745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7420.66072940442</c:v>
+                  <c:v>2913.14841571319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7182.90685226266</c:v>
+                  <c:v>2827.67852585052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6978.38267408951</c:v>
+                  <c:v>2687.12772700384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6927.97464193859</c:v>
+                  <c:v>2875.0265563501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6905.09635931539</c:v>
+                  <c:v>2874.71434722437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6925.88516054591</c:v>
+                  <c:v>2867.68977489151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6896.55743327611</c:v>
+                  <c:v>2878.3945130718</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6881.65138135161</c:v>
+                  <c:v>2857.55489530428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6838.48259176657</c:v>
+                  <c:v>2822.45322753508</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6747.54507959365</c:v>
+                  <c:v>2636.32151798036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6564.03197563376</c:v>
+                  <c:v>2425.31143714572</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6372.53512955731</c:v>
+                  <c:v>2300.73749181126</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6132.61290144952</c:v>
+                  <c:v>2294.74958665812</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6057.50110290833</c:v>
+                  <c:v>2145.26346660657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6044.36074755168</c:v>
+                  <c:v>2092.51940268003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6098.24555447676</c:v>
+                  <c:v>2004.86551980971</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6207.45709776357</c:v>
+                  <c:v>2119.52006367361</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6307.91812402144</c:v>
+                  <c:v>2182.07515165618</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6422.86296896232</c:v>
+                  <c:v>2157.64132175661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6456.09222505439</c:v>
+                  <c:v>2074.5548122749</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6418.44893345237</c:v>
+                  <c:v>1971.43575816965</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6343.75820186404</c:v>
+                  <c:v>1927.32738707907</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6256.43491792965</c:v>
+                  <c:v>1865.72849665317</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6214.7339164793</c:v>
+                  <c:v>1836.86120968341</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6221.09375842845</c:v>
+                  <c:v>1860.80085650586</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6294.62758263153</c:v>
+                  <c:v>1816.05974073987</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6407.56481532786</c:v>
+                  <c:v>1846.53780494998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6505.23746120889</c:v>
+                  <c:v>1862.59992539733</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6610.0862929725</c:v>
+                  <c:v>1925.73259713456</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6625.81893303793</c:v>
+                  <c:v>1824.98938698778</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6582.27126503221</c:v>
+                  <c:v>1723.34272264096</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6532.89869785697</c:v>
+                  <c:v>1694.40783183557</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6465.21812523554</c:v>
+                  <c:v>1666.1524097326</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6486.32237710227</c:v>
+                  <c:v>1632.8706546276</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6493.9481966545</c:v>
+                  <c:v>1646.3516826089</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6562.54238166842</c:v>
+                  <c:v>1657.22273231753</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6620.42152799693</c:v>
+                  <c:v>1671.37820814684</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6689.7024238391</c:v>
+                  <c:v>1683.79753747155</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6713.10036352216</c:v>
+                  <c:v>1808.59370231085</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6663.14925503929</c:v>
+                  <c:v>1765.94846266312</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6599.53061306916</c:v>
+                  <c:v>1726.86067896316</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6576.82503965075</c:v>
+                  <c:v>1716.01308487604</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6557.12119457358</c:v>
+                  <c:v>1679.63937936973</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6608.85355620803</c:v>
+                  <c:v>1690.90258905564</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6682.21214543166</c:v>
+                  <c:v>1737.32154902447</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6740.85381081911</c:v>
+                  <c:v>1720.41280192885</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6774.38889701493</c:v>
+                  <c:v>1729.69343469993</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6744.07264269675</c:v>
+                  <c:v>1686.17894579155</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6714.62474864722</c:v>
+                  <c:v>1637.57962923254</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6731.2591870353</c:v>
+                  <c:v>1657.05323906955</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6756.87427636299</c:v>
+                  <c:v>1674.25555850936</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6836.5009746102</c:v>
+                  <c:v>1827.87059783915</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6916.0093408313</c:v>
+                  <c:v>1848.18137294915</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7000.34588145554</c:v>
+                  <c:v>1863.86971828687</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7033.09942929489</c:v>
+                  <c:v>1909.54726840047</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7053.59496704628</c:v>
+                  <c:v>1922.9569237901</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7058.71853244927</c:v>
+                  <c:v>1898.96483357835</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7087.60934231537</c:v>
+                  <c:v>1871.71093555438</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7137.04907257257</c:v>
+                  <c:v>1869.13481456998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9662,28 +11359,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133947352"/>
-        <c:axId val="2131180536"/>
+        <c:axId val="2133913784"/>
+        <c:axId val="2133910792"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2133947352"/>
+      <c:dateAx>
+        <c:axId val="2133913784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131180536"/>
+        <c:crossAx val="2133910792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2131180536"/>
+        <c:axId val="2133910792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9694,7 +11391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133947352"/>
+        <c:crossAx val="2133913784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9720,7 +11417,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9731,7 +11428,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9742,7 +11450,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9214453" cy="5626934"/>
+    <xdr:ext cx="9216239" cy="5627615"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9769,7 +11477,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9214453" cy="5626934"/>
+    <xdr:ext cx="9216239" cy="5627615"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9793,6 +11501,33 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9216239" cy="5627615"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10481,7 +12216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB85"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA2" sqref="AA1:AB1048576"/>
     </sheetView>
   </sheetViews>
@@ -24117,15 +25852,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="F48" workbookViewId="0">
+      <selection activeCell="AA1" activeCellId="1" sqref="Y1:Y1048576 AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24201,8 +25936,11 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>58371.936477838302</v>
       </c>
@@ -24278,8 +26016,14 @@
       <c r="Y2">
         <v>10.807243513033301</v>
       </c>
+      <c r="AA2">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>39173</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>58891.846238850703</v>
       </c>
@@ -24355,8 +26099,14 @@
       <c r="Y3">
         <v>10.064830538303401</v>
       </c>
+      <c r="AA3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>39234</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>59324.657640232101</v>
       </c>
@@ -24432,8 +26182,14 @@
       <c r="Y4">
         <v>9.7198890482245908</v>
       </c>
+      <c r="AA4">
+        <v>12.18</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>39264</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>60083.1934750215</v>
       </c>
@@ -24509,8 +26265,14 @@
       <c r="Y5">
         <v>10.1813306138574</v>
       </c>
+      <c r="AA5">
+        <v>12.18</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>39295</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>61043.1368912381</v>
       </c>
@@ -24586,8 +26348,14 @@
       <c r="Y6">
         <v>11.882539625393299</v>
       </c>
+      <c r="AA6">
+        <v>12.18</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>39326</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>60696.358897644997</v>
       </c>
@@ -24663,8 +26431,14 @@
       <c r="Y7">
         <v>12.508672037174801</v>
       </c>
+      <c r="AA7">
+        <v>10.45</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>39356</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>61615.5286326571</v>
       </c>
@@ -24740,8 +26514,14 @@
       <c r="Y8">
         <v>13.3995662129006</v>
       </c>
+      <c r="AA8">
+        <v>10.45</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>39417</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>61644.715164522902</v>
       </c>
@@ -24817,8 +26597,14 @@
       <c r="Y9">
         <v>13.538490842902</v>
       </c>
+      <c r="AA9">
+        <v>13.62</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>39448</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>61587.184057772203</v>
       </c>
@@ -24894,8 +26680,14 @@
       <c r="Y10">
         <v>13.785151467023301</v>
       </c>
+      <c r="AA10">
+        <v>13.62</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>39479</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>62330.405801017798</v>
       </c>
@@ -24971,8 +26763,14 @@
       <c r="Y11">
         <v>13.8414410000992</v>
       </c>
+      <c r="AA11">
+        <v>13.62</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>39508</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>62354.1118643558</v>
       </c>
@@ -25048,8 +26846,14 @@
       <c r="Y12">
         <v>14.323988569274601</v>
       </c>
+      <c r="AA12">
+        <v>17.57</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>39539</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>61844.9621766899</v>
       </c>
@@ -25125,8 +26929,14 @@
       <c r="Y13">
         <v>14.899847711262099</v>
       </c>
+      <c r="AA13">
+        <v>17.57</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>39600</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>62726.711485092601</v>
       </c>
@@ -25202,8 +27012,14 @@
       <c r="Y14">
         <v>15.5464940866679</v>
       </c>
+      <c r="AA14">
+        <v>21.74</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>39630</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>63331.112288937598</v>
       </c>
@@ -25279,8 +27095,14 @@
       <c r="Y15">
         <v>16.842510008419602</v>
       </c>
+      <c r="AA15">
+        <v>21.74</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>39661</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>63194.529640989102</v>
       </c>
@@ -25356,8 +27178,14 @@
       <c r="Y16">
         <v>18.811233238076699</v>
       </c>
+      <c r="AA16">
+        <v>21.74</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>39692</v>
+      </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>63208.963451882497</v>
       </c>
@@ -25433,8 +27261,14 @@
       <c r="Y17">
         <v>20.415325846466001</v>
       </c>
+      <c r="AA17">
+        <v>24.98</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>39722</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>63357.282509738303</v>
       </c>
@@ -25510,8 +27344,14 @@
       <c r="Y18">
         <v>22.750212327154198</v>
       </c>
+      <c r="AA18">
+        <v>24.98</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>39783</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>62413.886556787802</v>
       </c>
@@ -25587,8 +27427,14 @@
       <c r="Y19">
         <v>23.596950519889599</v>
       </c>
+      <c r="AA19">
+        <v>24.72</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>39814</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>62241.029790364097</v>
       </c>
@@ -25664,8 +27510,14 @@
       <c r="Y20">
         <v>23.938405153761</v>
       </c>
+      <c r="AA20">
+        <v>24.72</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>39845</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>63316.228203238898</v>
       </c>
@@ -25741,8 +27593,14 @@
       <c r="Y21">
         <v>23.453355743864599</v>
       </c>
+      <c r="AA21">
+        <v>24.72</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>39873</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>63176.154059863402</v>
       </c>
@@ -25818,8 +27676,14 @@
       <c r="Y22">
         <v>22.431754271487101</v>
       </c>
+      <c r="AA22">
+        <v>27.47</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>39904</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>62472.376378252498</v>
       </c>
@@ -25895,8 +27759,14 @@
       <c r="Y23">
         <v>21.619942114792799</v>
       </c>
+      <c r="AA23">
+        <v>27.47</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>39965</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>64044.182071501396</v>
       </c>
@@ -25972,8 +27842,14 @@
       <c r="Y24">
         <v>20.4606706077493</v>
       </c>
+      <c r="AA24">
+        <v>30.64</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>39995</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>63603.306992302103</v>
       </c>
@@ -26049,8 +27925,14 @@
       <c r="Y25">
         <v>20.7001562067842</v>
       </c>
+      <c r="AA25">
+        <v>30.64</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>40026</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>63535.733094211202</v>
       </c>
@@ -26126,8 +28008,14 @@
       <c r="Y26">
         <v>21.8770009350111</v>
       </c>
+      <c r="AA26">
+        <v>30.64</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>40057</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>63435.536964365201</v>
       </c>
@@ -26203,8 +28091,14 @@
       <c r="Y27">
         <v>23.406155152584599</v>
       </c>
+      <c r="AA27">
+        <v>24.46</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>40087</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>63385.617711921797</v>
       </c>
@@ -26280,8 +28174,14 @@
       <c r="Y28">
         <v>25.092673824819201</v>
       </c>
+      <c r="AA28">
+        <v>24.46</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>40148</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>61959.257736635402</v>
       </c>
@@ -26357,8 +28257,14 @@
       <c r="Y29">
         <v>26.289223275323501</v>
       </c>
+      <c r="AA29">
+        <v>27.79</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>40179</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>62607.406561076197</v>
       </c>
@@ -26434,8 +28340,14 @@
       <c r="Y30">
         <v>26.713476682372299</v>
       </c>
+      <c r="AA30">
+        <v>27.79</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>40210</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>61643.708296919001</v>
       </c>
@@ -26511,8 +28423,14 @@
       <c r="Y31">
         <v>26.209156096599202</v>
       </c>
+      <c r="AA31">
+        <v>27.79</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>40238</v>
+      </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>61728.4304678072</v>
       </c>
@@ -26588,8 +28506,14 @@
       <c r="Y32">
         <v>25.236378563072201</v>
       </c>
+      <c r="AA32">
+        <v>29.43</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>40269</v>
+      </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>61140.552701956898</v>
       </c>
@@ -26665,8 +28589,14 @@
       <c r="Y33">
         <v>24.447902711199902</v>
       </c>
+      <c r="AA33">
+        <v>29.43</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>40330</v>
+      </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>59500.669249735802</v>
       </c>
@@ -26742,8 +28672,14 @@
       <c r="Y34">
         <v>23.432758059126201</v>
       </c>
+      <c r="AA34">
+        <v>27.49</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>40360</v>
+      </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>60390.673909686797</v>
       </c>
@@ -26819,8 +28755,14 @@
       <c r="Y35">
         <v>24.116850312099899</v>
       </c>
+      <c r="AA35">
+        <v>27.49</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>40391</v>
+      </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>59499.4282565268</v>
       </c>
@@ -26896,8 +28838,14 @@
       <c r="Y36">
         <v>25.665643636734099</v>
       </c>
+      <c r="AA36">
+        <v>27.49</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>40422</v>
+      </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>59589.501962052898</v>
       </c>
@@ -26973,8 +28921,14 @@
       <c r="Y37">
         <v>27.060233105422601</v>
       </c>
+      <c r="AA37">
+        <v>27.09</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>40452</v>
+      </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>60526.588701021697</v>
       </c>
@@ -27050,8 +29004,14 @@
       <c r="Y38">
         <v>28.578498295852199</v>
       </c>
+      <c r="AA38">
+        <v>27.09</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>40513</v>
+      </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>59408.540032262899</v>
       </c>
@@ -27127,8 +29087,14 @@
       <c r="Y39">
         <v>28.429219000540002</v>
       </c>
+      <c r="AA39">
+        <v>32.04</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>40544</v>
+      </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>59392.700729926997</v>
       </c>
@@ -27204,8 +29170,14 @@
       <c r="Y40">
         <v>28.7633907262551</v>
       </c>
+      <c r="AA40">
+        <v>32.04</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>40603</v>
+      </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>58135.240716797998</v>
       </c>
@@ -27281,8 +29253,14 @@
       <c r="Y41">
         <v>27.970224189713999</v>
       </c>
+      <c r="AA41">
+        <v>35.29</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>40634</v>
+      </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>57514.387739506099</v>
       </c>
@@ -27358,8 +29336,14 @@
       <c r="Y42">
         <v>27.502158133497101</v>
       </c>
+      <c r="AA42">
+        <v>35.29</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>40695</v>
+      </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>56888.454711814898</v>
       </c>
@@ -27435,8 +29419,14 @@
       <c r="Y43">
         <v>26.600399658649199</v>
       </c>
+      <c r="AA43">
+        <v>35.57</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>40725</v>
+      </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>56865.440302161202</v>
       </c>
@@ -27512,8 +29502,14 @@
       <c r="Y44">
         <v>26.659335374174301</v>
       </c>
+      <c r="AA44">
+        <v>35.57</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>40787</v>
+      </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>56194.312602847698</v>
       </c>
@@ -27589,8 +29585,14 @@
       <c r="Y45">
         <v>27.999019278930302</v>
       </c>
+      <c r="AA45">
+        <v>33.21</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>40817</v>
+      </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>56162.415721885598</v>
       </c>
@@ -27666,8 +29668,14 @@
       <c r="Y46">
         <v>29.6835209653212</v>
       </c>
+      <c r="AA46">
+        <v>33.21</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>40878</v>
+      </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>55348.916162582304</v>
       </c>
@@ -27743,8 +29751,14 @@
       <c r="Y47">
         <v>30.485317618033001</v>
       </c>
+      <c r="AA47">
+        <v>35.28</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>40909</v>
+      </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>54509.857838884003</v>
       </c>
@@ -27820,8 +29834,14 @@
       <c r="Y48">
         <v>31.501703638893499</v>
       </c>
+      <c r="AA48">
+        <v>35.28</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>40969</v>
+      </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>53541.578138571502</v>
       </c>
@@ -27897,8 +29917,14 @@
       <c r="Y49">
         <v>31.284121881674</v>
       </c>
+      <c r="AA49">
+        <v>35.32</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>41000</v>
+      </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>53548.175153238997</v>
       </c>
@@ -27974,8 +30000,14 @@
       <c r="Y50">
         <v>30.441320401746601</v>
       </c>
+      <c r="AA50">
+        <v>35.32</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>41061</v>
+      </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>52755.849211498396</v>
       </c>
@@ -28051,8 +30083,14 @@
       <c r="Y51">
         <v>29.793112651029599</v>
       </c>
+      <c r="AA51">
+        <v>38.44</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>41091</v>
+      </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>53514.566548062103</v>
       </c>
@@ -28128,8 +30166,14 @@
       <c r="Y52">
         <v>29.916360105461099</v>
       </c>
+      <c r="AA52">
+        <v>38.44</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>41153</v>
+      </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52888.176744564997</v>
       </c>
@@ -28205,8 +30249,14 @@
       <c r="Y53">
         <v>30.9414965631263</v>
       </c>
+      <c r="AA53">
+        <v>36.6</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>41183</v>
+      </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>52549.205349687203</v>
       </c>
@@ -28282,8 +30332,14 @@
       <c r="Y54">
         <v>31.828997246111101</v>
       </c>
+      <c r="AA54">
+        <v>36.6</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>41244</v>
+      </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>52371.863397119399</v>
       </c>
@@ -28359,8 +30415,14 @@
       <c r="Y55">
         <v>31.629275097367199</v>
       </c>
+      <c r="AA55">
+        <v>37.11</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>41275</v>
+      </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>51624.278014418996</v>
       </c>
@@ -28436,8 +30498,14 @@
       <c r="Y56">
         <v>31.6773385323485</v>
       </c>
+      <c r="AA56">
+        <v>37.11</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>41334</v>
+      </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>50212.076664147797</v>
       </c>
@@ -28513,8 +30581,14 @@
       <c r="Y57">
         <v>30.497350675282</v>
       </c>
+      <c r="AA57">
+        <v>35.74</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>41365</v>
+      </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>50368.307051308497</v>
       </c>
@@ -28590,8 +30664,14 @@
       <c r="Y58">
         <v>29.732193995007002</v>
       </c>
+      <c r="AA58">
+        <v>35.74</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>41426</v>
+      </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>49577.292720929901</v>
       </c>
@@ -28667,8 +30747,14 @@
       <c r="Y59">
         <v>28.697634386552402</v>
       </c>
+      <c r="AA59">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>41456</v>
+      </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>50413.089961625003</v>
       </c>
@@ -28744,8 +30830,14 @@
       <c r="Y60">
         <v>29.383987280410501</v>
       </c>
+      <c r="AA60">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>41518</v>
+      </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>50757.847849682097</v>
       </c>
@@ -28821,8 +30913,14 @@
       <c r="Y61">
         <v>29.4864399672066</v>
       </c>
+      <c r="AA61">
+        <v>36.25</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>41548</v>
+      </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>50917.386725906203</v>
       </c>
@@ -28898,8 +30996,14 @@
       <c r="Y62">
         <v>30.208648722979401</v>
       </c>
+      <c r="AA62">
+        <v>36.25</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>41609</v>
+      </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>49957.332957825798</v>
       </c>
@@ -28975,8 +31079,14 @@
       <c r="Y63">
         <v>30.299119034692499</v>
       </c>
+      <c r="AA63">
+        <v>33.35</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>41640</v>
+      </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>50586.157798165099</v>
       </c>
@@ -29051,6 +31161,12 @@
       </c>
       <c r="Y64">
         <v>30.223707992246801</v>
+      </c>
+      <c r="AA64">
+        <v>33.35</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>41699</v>
       </c>
     </row>
   </sheetData>
@@ -29068,8 +31184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView topLeftCell="L9" workbookViewId="0">
-      <selection activeCell="L36" sqref="A36:XFD36"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB1" activeCellId="1" sqref="AA1:AA1048576 AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/extensions/icdm2016/doc-Experiments/ResidualsAnalysis.xlsx
+++ b/extensions/icdm2016/doc-Experiments/ResidualsAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13880" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Peaks-Graph" sheetId="3" r:id="rId1"/>
@@ -1541,11 +1541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135242056"/>
-        <c:axId val="2135245112"/>
+        <c:axId val="2127239016"/>
+        <c:axId val="2127242120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2135242056"/>
+        <c:axId val="2127239016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,14 +1555,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135245112"/>
+        <c:crossAx val="2127242120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2135245112"/>
+        <c:axId val="2127242120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,14 +1573,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135242056"/>
+        <c:crossAx val="2127239016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2450,11 +2449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133883832"/>
-        <c:axId val="2133880840"/>
+        <c:axId val="2128118312"/>
+        <c:axId val="2128121320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2133883832"/>
+        <c:axId val="2128118312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,14 +2463,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133880840"/>
+        <c:crossAx val="2128121320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2133880840"/>
+        <c:axId val="2128121320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133883832"/>
+        <c:crossAx val="2128118312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3364,11 +3363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133853592"/>
-        <c:axId val="2136013608"/>
+        <c:axId val="2128149976"/>
+        <c:axId val="2128153016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2133853592"/>
+        <c:axId val="2128149976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,14 +3377,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136013608"/>
+        <c:crossAx val="2128153016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2136013608"/>
+        <c:axId val="2128153016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,7 +3395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133853592"/>
+        <c:crossAx val="2128149976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3882,11 +3881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136041048"/>
-        <c:axId val="2136044024"/>
+        <c:axId val="2128179816"/>
+        <c:axId val="2128182792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136041048"/>
+        <c:axId val="2128179816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +3894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136044024"/>
+        <c:crossAx val="2128182792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3903,7 +3902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136044024"/>
+        <c:axId val="2128182792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3914,7 +3913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136041048"/>
+        <c:crossAx val="2128179816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4400,11 +4399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136071688"/>
-        <c:axId val="2136074664"/>
+        <c:axId val="2128209896"/>
+        <c:axId val="2128212872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136071688"/>
+        <c:axId val="2128209896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4413,7 +4412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136074664"/>
+        <c:crossAx val="2128212872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4421,7 +4420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136074664"/>
+        <c:axId val="2128212872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,7 +4431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136071688"/>
+        <c:crossAx val="2128209896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4918,11 +4917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137084680"/>
-        <c:axId val="2137087656"/>
+        <c:axId val="2128239848"/>
+        <c:axId val="2128242824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137084680"/>
+        <c:axId val="2128239848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4931,7 +4930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137087656"/>
+        <c:crossAx val="2128242824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4939,7 +4938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137087656"/>
+        <c:axId val="2128242824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,14 +4949,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137084680"/>
+        <c:crossAx val="2128239848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5436,11 +5434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137114840"/>
-        <c:axId val="2137117816"/>
+        <c:axId val="2128269800"/>
+        <c:axId val="2128272776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137114840"/>
+        <c:axId val="2128269800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5449,7 +5447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137117816"/>
+        <c:crossAx val="2128272776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5457,7 +5455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137117816"/>
+        <c:axId val="2128272776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5468,14 +5466,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137114840"/>
+        <c:crossAx val="2128269800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7356,11 +7353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135306344"/>
-        <c:axId val="2135309464"/>
+        <c:axId val="2127851288"/>
+        <c:axId val="2127854408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2135306344"/>
+        <c:axId val="2127851288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7370,14 +7367,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135309464"/>
+        <c:crossAx val="2127854408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2135309464"/>
+        <c:axId val="2127854408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7388,14 +7385,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135306344"/>
+        <c:crossAx val="2127851288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7860,11 +7856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2144429976"/>
-        <c:axId val="2144438776"/>
+        <c:axId val="2127894664"/>
+        <c:axId val="2127897640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144429976"/>
+        <c:axId val="2127894664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7873,7 +7869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144438776"/>
+        <c:crossAx val="2127897640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7881,7 +7877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144438776"/>
+        <c:axId val="2127897640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7892,14 +7888,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144429976"/>
+        <c:crossAx val="2127894664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8373,11 +8368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135350664"/>
-        <c:axId val="2135353640"/>
+        <c:axId val="2127934376"/>
+        <c:axId val="2127937352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135350664"/>
+        <c:axId val="2127934376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8386,7 +8381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135353640"/>
+        <c:crossAx val="2127937352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8394,7 +8389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135353640"/>
+        <c:axId val="2127937352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8405,14 +8400,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135350664"/>
+        <c:crossAx val="2127934376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8891,11 +8885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135380888"/>
-        <c:axId val="2135383864"/>
+        <c:axId val="2127964248"/>
+        <c:axId val="2127967224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135380888"/>
+        <c:axId val="2127964248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8904,7 +8898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135383864"/>
+        <c:crossAx val="2127967224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8912,7 +8906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135383864"/>
+        <c:axId val="2127967224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8923,14 +8917,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135380888"/>
+        <c:crossAx val="2127964248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9409,11 +9402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135410840"/>
-        <c:axId val="2135413816"/>
+        <c:axId val="2127994120"/>
+        <c:axId val="2127997096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135410840"/>
+        <c:axId val="2127994120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9422,7 +9415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135413816"/>
+        <c:crossAx val="2127997096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9430,7 +9423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135413816"/>
+        <c:axId val="2127997096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9441,14 +9434,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135410840"/>
+        <c:crossAx val="2127994120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9927,11 +9919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134824440"/>
-        <c:axId val="2134827384"/>
+        <c:axId val="2128023736"/>
+        <c:axId val="2128026712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134824440"/>
+        <c:axId val="2128023736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9940,7 +9932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134827384"/>
+        <c:crossAx val="2128026712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9948,7 +9940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134827384"/>
+        <c:axId val="2128026712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9959,14 +9951,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134824440"/>
+        <c:crossAx val="2128023736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10445,11 +10436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134854968"/>
-        <c:axId val="2134857944"/>
+        <c:axId val="2128053368"/>
+        <c:axId val="2128056344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134854968"/>
+        <c:axId val="2128053368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10458,7 +10449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134857944"/>
+        <c:crossAx val="2128056344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10466,7 +10457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134857944"/>
+        <c:axId val="2128056344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10477,7 +10468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134854968"/>
+        <c:crossAx val="2128053368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11359,11 +11350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133913784"/>
-        <c:axId val="2133910792"/>
+        <c:axId val="2128085256"/>
+        <c:axId val="2128088296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2133913784"/>
+        <c:axId val="2128085256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11373,14 +11364,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133910792"/>
+        <c:crossAx val="2128088296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2133910792"/>
+        <c:axId val="2128088296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11391,7 +11382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133913784"/>
+        <c:crossAx val="2128085256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25854,8 +25845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F48" workbookViewId="0">
-      <selection activeCell="AA1" activeCellId="1" sqref="Y1:Y1048576 AA1:AA1048576"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31171,6 +31162,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/extensions/icdm2016/doc-Experiments/ResidualsAnalysis.xlsx
+++ b/extensions/icdm2016/doc-Experiments/ResidualsAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Peaks-Graph" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="26">
   <si>
     <t>VAR01realMean_c0</t>
   </si>
@@ -160,8 +160,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -173,11 +185,23 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1541,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127239016"/>
-        <c:axId val="2127242120"/>
+        <c:axId val="2128193528"/>
+        <c:axId val="2127998904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2127239016"/>
+        <c:axId val="2128193528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,14 +1579,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127242120"/>
+        <c:crossAx val="2127998904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2127242120"/>
+        <c:axId val="2127998904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,13 +1597,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127239016"/>
+        <c:crossAx val="2128193528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2449,11 +2474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128118312"/>
-        <c:axId val="2128121320"/>
+        <c:axId val="-2107230808"/>
+        <c:axId val="-2107227800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128118312"/>
+        <c:axId val="-2107230808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,14 +2488,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128121320"/>
+        <c:crossAx val="-2107227800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128121320"/>
+        <c:axId val="-2107227800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128118312"/>
+        <c:crossAx val="-2107230808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3363,11 +3388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128149976"/>
-        <c:axId val="2128153016"/>
+        <c:axId val="-2107260776"/>
+        <c:axId val="-2107257768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128149976"/>
+        <c:axId val="-2107260776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,14 +3402,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128153016"/>
+        <c:crossAx val="-2107257768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128153016"/>
+        <c:axId val="-2107257768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3395,7 +3420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128149976"/>
+        <c:crossAx val="-2107260776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3454,6 +3479,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>NoPeaks!$Q$2:$Q$64</c:f>
@@ -3671,6 +3894,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>NoPeaks!$R$2:$R$64</c:f>
@@ -3881,28 +4302,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128179816"/>
-        <c:axId val="2128182792"/>
+        <c:axId val="-2107284040"/>
+        <c:axId val="-2107296920"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2128179816"/>
+      <c:dateAx>
+        <c:axId val="-2107284040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128182792"/>
+        <c:crossAx val="-2107296920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2128182792"/>
+        <c:axId val="-2107296920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +4334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128179816"/>
+        <c:crossAx val="-2107284040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4399,11 +4820,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128209896"/>
-        <c:axId val="2128212872"/>
+        <c:axId val="-2107322392"/>
+        <c:axId val="-2107329016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128209896"/>
+        <c:axId val="-2107322392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,7 +4833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128212872"/>
+        <c:crossAx val="-2107329016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4420,7 +4841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128212872"/>
+        <c:axId val="-2107329016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,7 +4852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128209896"/>
+        <c:crossAx val="-2107322392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4917,11 +5338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128239848"/>
-        <c:axId val="2128242824"/>
+        <c:axId val="-2107368424"/>
+        <c:axId val="-2107365448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128239848"/>
+        <c:axId val="-2107368424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4930,7 +5351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128242824"/>
+        <c:crossAx val="-2107365448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4938,7 +5359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128242824"/>
+        <c:axId val="-2107365448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4949,13 +5370,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128239848"/>
+        <c:crossAx val="-2107368424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5434,11 +5856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128269800"/>
-        <c:axId val="2128272776"/>
+        <c:axId val="-2107409240"/>
+        <c:axId val="-2107406264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128269800"/>
+        <c:axId val="-2107409240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5447,7 +5869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128272776"/>
+        <c:crossAx val="-2107406264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5455,7 +5877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128272776"/>
+        <c:axId val="-2107406264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5466,13 +5888,267 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128269800"/>
+        <c:crossAx val="-2107409240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NoPeaks--Residuals'!$B$76:$B$99</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>VAR01realMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VAR01learntMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VAR01realMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VAR01learntMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VAR02realMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VAR02learntMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VAR02realMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VAR02learntMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VAR03realMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VAR03learntMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>VAR03realMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>VAR03learntMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>VAR04realMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>VAR04learntMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>VAR04realMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>VAR04learntMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>VAR07realMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>VAR07learntMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>VAR07realMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>VAR07learntMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>VAR08realMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>VAR08learntMean_c0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>VAR08realMean_c1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>VAR08learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NoPeaks--Residuals'!$C$76:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.322936174827091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.224117026681715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.118836623773302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.593971521374176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0571905134638673</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.331655812245296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0162425531434495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.325875891963957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0449363430399551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.208521612282609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.000452336349117796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.27630192213129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.174224834418421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.201245883037812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.0395465907520668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.287401870565542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.166148625441527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0368578072346368</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.291573012353656</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.389405947714778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.432771932432696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.528626144147841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.0375990548095252</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.442645604238406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2097886280"/>
+        <c:axId val="-2097884872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2097886280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097884872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2097884872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097886280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7353,11 +8029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127851288"/>
-        <c:axId val="2127854408"/>
+        <c:axId val="-2132253352"/>
+        <c:axId val="-2106678920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2127851288"/>
+        <c:axId val="-2132253352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7367,14 +8043,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127854408"/>
+        <c:crossAx val="-2106678920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2127854408"/>
+        <c:axId val="-2106678920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7385,13 +8061,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127851288"/>
+        <c:crossAx val="-2132253352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7438,6 +8115,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>NoPeaks!$Y$2:$Y$64</c:f>
@@ -7655,6 +8530,204 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NoPeaks!$AB$2:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>NoPeaks!$AA$5:$AA$64</c:f>
@@ -7856,28 +8929,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127894664"/>
-        <c:axId val="2127897640"/>
+        <c:axId val="-2107205544"/>
+        <c:axId val="-2107202568"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2127894664"/>
+      <c:dateAx>
+        <c:axId val="-2107205544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127897640"/>
+        <c:crossAx val="-2107202568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2127897640"/>
+        <c:axId val="-2107202568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7888,13 +8961,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127894664"/>
+        <c:crossAx val="-2107205544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8368,11 +9442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127934376"/>
-        <c:axId val="2127937352"/>
+        <c:axId val="-2097948200"/>
+        <c:axId val="-2144991896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127934376"/>
+        <c:axId val="-2097948200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8381,7 +9455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127937352"/>
+        <c:crossAx val="-2144991896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8389,7 +9463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127937352"/>
+        <c:axId val="-2144991896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8400,13 +9474,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127934376"/>
+        <c:crossAx val="-2097948200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8885,11 +9960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127964248"/>
-        <c:axId val="2127967224"/>
+        <c:axId val="-2132401224"/>
+        <c:axId val="-2111340312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127964248"/>
+        <c:axId val="-2132401224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8898,7 +9973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127967224"/>
+        <c:crossAx val="-2111340312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8906,7 +9981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127967224"/>
+        <c:axId val="-2111340312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8917,13 +9992,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127964248"/>
+        <c:crossAx val="-2132401224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9402,11 +10478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127994120"/>
-        <c:axId val="2127997096"/>
+        <c:axId val="-2140884424"/>
+        <c:axId val="-2140833880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127994120"/>
+        <c:axId val="-2140884424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9415,7 +10491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127997096"/>
+        <c:crossAx val="-2140833880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9423,7 +10499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127997096"/>
+        <c:axId val="-2140833880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9434,13 +10510,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127994120"/>
+        <c:crossAx val="-2140884424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9919,11 +10996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128023736"/>
-        <c:axId val="2128026712"/>
+        <c:axId val="2127977592"/>
+        <c:axId val="-2086459944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128023736"/>
+        <c:axId val="2127977592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9932,7 +11009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128026712"/>
+        <c:crossAx val="-2086459944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9940,7 +11017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128026712"/>
+        <c:axId val="-2086459944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9951,13 +11028,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128023736"/>
+        <c:crossAx val="2127977592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10436,11 +11514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128053368"/>
-        <c:axId val="2128056344"/>
+        <c:axId val="2128538376"/>
+        <c:axId val="2130083000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128053368"/>
+        <c:axId val="2128538376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10449,7 +11527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128056344"/>
+        <c:crossAx val="2130083000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10457,7 +11535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128056344"/>
+        <c:axId val="2130083000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10468,7 +11546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128053368"/>
+        <c:crossAx val="2128538376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11350,11 +12428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128085256"/>
-        <c:axId val="2128088296"/>
+        <c:axId val="-2140728072"/>
+        <c:axId val="-2140790376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2128085256"/>
+        <c:axId val="-2140728072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11364,14 +12442,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128088296"/>
+        <c:crossAx val="-2140790376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128088296"/>
+        <c:axId val="-2140790376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11382,7 +12460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128085256"/>
+        <c:crossAx val="-2140728072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11419,7 +12497,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11430,7 +12508,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11468,7 +12546,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9216239" cy="5627615"/>
+    <xdr:ext cx="9201930" cy="5603596"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11495,7 +12573,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9216239" cy="5627615"/>
+    <xdr:ext cx="9201930" cy="5603596"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -11883,6 +12961,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25845,8 +26958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31174,10 +32287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB64"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB1" activeCellId="1" sqref="AA1:AA1048576 AB1:AB1048576"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -36491,8 +37604,386 @@
         <v>41699</v>
       </c>
     </row>
+    <row r="67" spans="1:25">
+      <c r="A67">
+        <f>AVERAGE(A2:A64)/MAX(MAX(A2:A64),-MIN(A2:A64))</f>
+        <v>-0.32293617482709081</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:Y67" si="0">AVERAGE(B2:B64)/MAX(MAX(B2:B64),-MIN(B2:B64))</f>
+        <v>-0.2241170266817146</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>0.11883662377330155</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>0.59397152137417553</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>5.7190513463867269E-2</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>0.33165581224529594</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>1.6242553143449481E-2</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>0.32587589196395683</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>-4.4936343039955071E-2</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>-0.20852161228260868</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>-4.5233634911779621E-4</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>-0.27630192213128996</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="0"/>
+        <v>0.17422483441842096</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>0.20124588303781155</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="0"/>
+        <v>-3.9546590752066825E-2</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="0"/>
+        <v>-0.28740187056554195</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="0"/>
+        <v>-0.16614862544152728</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="0"/>
+        <v>3.685780723463683E-2</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="0"/>
+        <v>0.29157301235365574</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="0"/>
+        <v>0.38940594771477854</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="0"/>
+        <v>-0.43277193243269635</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="0"/>
+        <v>-0.52862614414784104</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="0"/>
+        <v>-3.7599054809525197E-2</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="0"/>
+        <v>-0.44264560423840621</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="0"/>
+        <v>0.55018162506072732</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O68" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>16</v>
+      </c>
+      <c r="R68" t="s">
+        <v>17</v>
+      </c>
+      <c r="S68" t="s">
+        <v>18</v>
+      </c>
+      <c r="T68" t="s">
+        <v>19</v>
+      </c>
+      <c r="U68" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s">
+        <v>21</v>
+      </c>
+      <c r="W68" t="s">
+        <v>22</v>
+      </c>
+      <c r="X68" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>-0.32293617482709081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>-0.2241170266817146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>0.11883662377330155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>0.59397152137417553</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>5.7190513463867269E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>0.33165581224529594</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>1.6242553143449481E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>0.32587589196395683</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>-4.4936343039955071E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>-0.20852161228260868</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>-4.5233634911779621E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>-0.27630192213128996</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>0.17422483441842096</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>0.20124588303781155</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>-3.9546590752066825E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>-0.28740187056554195</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>-0.16614862544152728</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>3.685780723463683E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>0.29157301235365574</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>0.38940594771477854</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>-0.43277193243269635</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97">
+        <v>-0.52862614414784104</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>-3.7599054809525197E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>-0.44264560423840621</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="C100">
+        <v>0.55018162506072732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
